--- a/results_JPFA.xlsx
+++ b/results_JPFA.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="204">
   <si>
     <t>Cumulative Sum</t>
   </si>
@@ -50,238 +50,235 @@
     <t>Pbox: ~ (range=[(0.0, 0.0), mean=0.0, var=0)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(864950.5391, 1017588.8695), mean=[926254.1422, 964711.7386], var=[228756509.3042, 1793409359.4544])</t>
+    <t>Pbox: ~ (range=[(1017588.8695, 1017588.8695), mean=1017588.8695, var=0)</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(405129.1129, 421899.2306), mean=[405129.1129, 421899.2306], var=[0, 129.4995])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(-11436.466, 157971.9822), mean=[49867.1372, 105094.8513], var=[170581100.3426, 2500765694.1318])</t>
+    <t>Pbox: ~ (range=[(146736.2645, 163506.3822), mean=[146736.2645, 163506.3822], var=[0, 129.4995])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(1731213.8645, 1747983.9822), mean=[1731213.8645, 1747983.9822], var=[0, 129.4995])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(-0.7193, 9.9353), mean=[3.1363, 6.6097], var=[0.6747, 9.8917])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(701481.5892, 1031590.5723), mean=[925499.6705, 977985.8687], var=[33223291.2317, 3572808988.6341])</t>
+    <t>Pbox: ~ (range=[(9.2286, 10.2833), mean=[9.2286, 10.2833], var=[0, 0.0])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(1031590.5723, 1031590.5723), mean=1031590.5723, var=0)</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(405209.3979, 421979.5156), mean=[405209.3979, 421979.5156], var=[0, 129.4995])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(289819.6608, 424023.3608), mean=295389.8544, var=[99266973.3866, 169246339.9553])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-306975.6409, 174107.16), mean=[18424.1156, 120474.0778], var=[1577749.0953, 8111691563.427])</t>
+    <t>Pbox: ~ (range=[(160657.6823, 177427.8), mean=[160657.6823, 177427.8], var=[0, 129.4995])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(1888550.9068, 1922091.1422), mean=[1888550.9068, 1922091.1422], var=[0, 183.1399])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(-19.3065, 10.9501), mean=[1.1587, 7.5769], var=[0.0062, 32.0856])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(709769.1087, 1043778.101), mean=[936433.8086, 989540.095], var=[34012948.8547, 3657728204.905])</t>
+    <t>Pbox: ~ (range=[(10.1042, 11.1589), mean=[10.1042, 11.1589], var=[0, 0.0])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(1043778.101, 1043778.101), mean=1043778.101, var=0)</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(398144.8005, 414914.9182), mean=[398144.8005, 414914.9182], var=[0, 129.4995])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(-291623.524, 193359.2861), mean=[36226.715, 139098.9618], var=[1683275.9453, 8248136175.1732])</t>
+    <t>Pbox: ~ (range=[(179909.8084, 196679.9261), mean=[179909.8084, 196679.9261], var=[0, 129.4995])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(2065140.0751, 2115450.4283), mean=[2065140.0751, 2115450.4283], var=[0, 224.2997])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(-18.341, 12.1609), mean=[2.2784, 8.7483], var=[0.0067, 32.6253])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(716917.8851, 1054291.0074), mean=[945865.5461, 999506.7176], var=[34701554.3947, 3731780352.4122])</t>
+    <t>Pbox: ~ (range=[(11.315, 12.3697), mean=[11.315, 12.3697], var=[0, 0.0])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(1054291.0074, 1054291.0074), mean=1054291.0074, var=0)</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(391427.3249, 408197.4426), mean=[391427.3249, 408197.4426], var=[0, 129.4995])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(-277757.272, 210589.6681), mean=[52208.0639, 155787.7681], var=[1777960.2126, 8366627010.3555])</t>
+    <t>Pbox: ~ (range=[(197140.1904, 213910.3081), mean=[197140.1904, 213910.3081], var=[0, 129.4995])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(2258959.6255, 2326040.0964), mean=[2258959.6255, 2326040.0964], var=[0, 258.999])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(-17.4689, 13.2445), mean=[3.2835, 9.7979], var=[0.007, 33.094])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(723022.8136, 1063268.8435), mean=[953920.0829, 1008018.0369], var=[35295074.2976, 3795607058.478])</t>
+    <t>Pbox: ~ (range=[(12.3987, 13.4534), mean=[12.3987, 13.4534], var=[0, 0.0])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(1063268.8435, 1063268.8435), mean=1063268.8435, var=0)</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(385039.9351, 401810.0528), mean=[385039.9351, 401810.0528], var=[0, 129.4995])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(-265264.9537, 225954.8939), mean=[66507.7857, 170690.4674], var=[1861556.683, 8468499082.8634])</t>
+    <t>Pbox: ~ (range=[(212505.4162, 229275.5339), mean=[212505.4162, 229275.5339], var=[0, 129.4995])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(2468144.4016, 2551994.9902), mean=[2468144.4016, 2551994.9902], var=[0, 289.5697])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(-16.6832, 14.2109), mean=[4.1828, 10.7352], var=[0.0074, 33.497])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(728178.7894, 1070851.1609), mean=[960722.6192, 1015206.3532], var=[35800257.2945, 3849934076.833])</t>
+    <t>Pbox: ~ (range=[(13.365, 14.4197), mean=[13.365, 14.4197], var=[0, 0.0])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(1070851.1609, 1070851.1609), mean=1070851.1609, var=0)</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(378966.4869, 395736.6046), mean=[378966.4869, 395736.6046], var=[0, 129.4995])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(-254035.5297, 239610.6595), mean=[79265.0701, 183955.2266], var=[1934123.4426, 8554845042.9216])</t>
+    <t>Pbox: ~ (range=[(226161.1818, 242931.2995), mean=[226161.1818, 242931.2995], var=[0, 129.4995])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(2690984.9435, 2791605.6498), mean=[2690984.9435, 2791605.6498], var=[0, 317.2077])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(-15.977, 15.0697), mean=[4.9852, 11.5694], var=[0.0077, 33.8385])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(732480.708, 1077177.5117), mean=[966398.3551, 1021203.9668], var=[36224506.7235, 3895557557.1403])</t>
+    <t>Pbox: ~ (range=[(14.2239, 15.2786), mean=[14.2239, 15.2786], var=[0, 0.0])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(1077177.5117, 1077177.5117), mean=1077177.5117, var=0)</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(373191.6833, 389961.801), mean=[373191.6833, 389961.801], var=[0, 129.4995])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(-243958.8075, 251711.8139), mean=[90617.0383, 195730.1425], var=[1994956.1042, 8627154645.3167])</t>
+    <t>Pbox: ~ (range=[(238262.3362, 255032.4539), mean=[238262.3362, 255032.4539], var=[0, 129.4995])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(2925926.6397, 3043317.4637), mean=[2925926.6397, 3043317.4637], var=[0, 342.6234])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(-15.3432, 15.8308), mean=[5.6991, 12.31], var=[0.0079, 34.1245])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(736023.4644, 1082387.4476), mean=[971072.4904, 1026143.178], var=[36575765.0102, 3933331622.1838])</t>
+    <t>Pbox: ~ (range=[(14.9849, 16.0397), mean=[14.9849, 16.0397], var=[0, 0.0])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(1082387.4476, 1082387.4476), mean=1082387.4476, var=0)</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(367701.0322, 384471.1499), mean=[367701.0322, 384471.1499], var=[0, 129.4995])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(-234925.4, 262412.401), mean=[100701.0536, 206161.8348], var=[2045404.5725, 8686885603.1973])</t>
+    <t>Pbox: ~ (range=[(248962.9233, 265733.041), mean=[248962.9233, 265733.041], var=[0, 129.4995])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(3171568.9229, 3305729.8647), mean=[3171568.9229, 3305729.8647], var=[0, 366.2799])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(-14.7751, 16.5038), mean=[6.3334, 12.9661], var=[0.0081, 34.3608])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(738901.954, 1086620.5206), mean=[974870.2254, 1030156.2871], var=[36862410.3092, 3964157252.721])</t>
+    <t>Pbox: ~ (range=[(15.6579, 16.7126), mean=[15.6579, 16.7126], var=[0, 0.0])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(1086620.5206, 1086620.5206), mean=1086620.5206, var=0)</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(362480.806, 379250.9237), mean=[362480.806, 379250.9237], var=[0, 129.4995])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(-226826.6842, 271865.7001), mean=[109653.8999, 215396.6187], var=[2087008.8567, 8735510388.3014])</t>
+    <t>Pbox: ~ (range=[(258416.2224, 275186.3401), mean=[258416.2224, 275186.3401], var=[0, 129.4995])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(3426664.5053, 3577595.5648), mean=[3426664.5053, 3577595.5648], var=[0, 388.4985])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(-14.2657, 17.0983), mean=[6.8964, 13.5469], var=[0.0083, 34.5531])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(741211.072, 1090016.2824), mean=[977916.7601, 1033375.5944], var=[37093165.3049, 3988972480.0002])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(308843.5614, 352655.0359), mean=[313287.7312, 347717.0694], var=[0.0, 479861324.9042])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-197921.6784, 328898.7065), mean=[139244.0906, 271421.2372], var=[0.0, 11128606893.8515])</t>
+    <t>Pbox: ~ (range=[(16.2525, 17.3072), mean=[16.2525, 17.3072], var=[0, 0.0])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(1090016.2824, 1090016.2824), mean=1090016.2824, var=0)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(357518.0036, 374288.1213), mean=[357518.0036, 374288.1213], var=[0, 129.4995])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(266774.7866, 283544.9043), mean=[266774.7866, 283544.9043], var=[0, 129.4995])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(3690118.6519, 3857819.8291), mean=[3690118.6519, 3857819.8291], var=[0, 409.5133])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(-12.4478, 20.6853), mean=[8.7574, 17.0704], var=[0.0, 0.0044])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(743045.7137, 1092714.2849), mean=[980337.2945, 1035933.4002], var=[37277018.1724, 4008743885.9418])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(304125.8718, 347937.3463), mean=[308570.0416, 342999.3798], var=[0.0, 479861324.9042])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-191369.347, 336314.3987), mean=[146340.8586, 278701.3479], var=[0.0, 11163305865.1047])</t>
+    <t>Pbox: ~ (range=[(16.7782, 17.8329), mean=[16.7782, 17.8329], var=[0, 0.0])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(1092714.2849, 1092714.2849), mean=1092714.2849, var=0)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(352800.314, 369570.4317), mean=[352800.314, 369570.4317], var=[0, 129.4995])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(274190.4787, 290960.5964), mean=[274190.4787, 290960.5964], var=[0, 129.4995])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(3960988.4906, 4145459.7855), mean=[3960988.4906, 4145459.7855], var=[0, 429.5012])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(-12.0357, 21.1517), mean=[9.2038, 17.5283], var=[0.0, 0.0044])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(744500.7744, 1094854.08), mean=[982257.0286, 1037962.0048], var=[37423155.6981, 4024459410.9847])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(299641.6394, 343453.114), mean=[304085.8093, 338515.1475], var=[0.0, 479861324.9042])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-185430.054, 342938.4261), mean=[152712.2608, 285217.7033], var=[0.0, 11190859248.0127])</t>
+    <t>Pbox: ~ (range=[(17.2446, 18.2993), mean=[17.2446, 18.2993], var=[0, 0.0])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(1094854.08, 1094854.08), mean=1094854.08, var=0)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(348316.0817, 365086.1994), mean=[348316.0817, 365086.1994], var=[0, 129.4995])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(280814.5061, 297584.6239), mean=[280814.5061, 297584.6239], var=[0, 129.4995])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(4238482.3567, 4439723.7694), mean=[4238482.3567, 4439723.7694], var=[0, 448.5994])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(-11.6622, 21.5683), mean=[9.6045, 17.9381], var=[0.0, 0.0044])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(745671.1493, 1096575.2196), mean=[983801.1626, 1039593.7085], var=[37540908.5602, 4037122469.596])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(295379.8316, 339191.3062), mean=[299824.0015, 334253.3397], var=[0.0, 479861324.9042])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-179997.8713, 348921.3735), mean=[158492.036, 291113.9522], var=[0.0, 11213043227.9577])</t>
+    <t>Pbox: ~ (range=[(17.6612, 18.7159), mean=[17.6612, 18.7159], var=[0, 0.0])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(1096575.2196, 1096575.2196), mean=1096575.2196, var=0)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(344054.2739, 360824.3916), mean=[344054.2739, 360824.3916], var=[0, 129.4995])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(286797.4535, 303567.5712), mean=[286797.4535, 303567.5712], var=[0, 129.4995])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(4521959.1702, 4739970.7006), mean=[4521959.1702, 4739970.7006], var=[0, 466.917])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(-11.3205, 21.9446), mean=[9.968, 18.3089], var=[0.0, 0.0044])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(746651.7337, 1098017.2554), mean=[985094.8965, 1040960.8116], var=[37639708.7692, 4047747373.4461])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(291330.0073, 335141.4818), mean=[295774.1772, 330203.5153], var=[0.0, 479861324.9042])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-174967.4626, 354413.2336), mean=[163813.6708, 296533.1597], var=[0.0, 11231647384.9434])</t>
+    <t>Pbox: ~ (range=[(18.0374, 19.0922), mean=[18.0374, 19.0922], var=[0, 0.0])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(1098017.2554, 1098017.2554), mean=1098017.2554, var=0)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(340004.4496, 356774.5673), mean=[340004.4496, 356774.5673], var=[0, 129.4995])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(292289.3137, 309059.4314), mean=[292289.3137, 309059.4314], var=[0, 129.4995])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(4810927.8439, 5045709.4919), mean=[4810927.8439, 5045709.4919], var=[0, 484.5427])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(-11.0042, 22.29), mean=[10.3027, 18.6497], var=[0.0, 0.0044])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(747537.4228, 1099319.7394), mean=[986263.4304, 1042195.6144], var=[37729059.2683, 4057356062.2478])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(287482.2875, 331293.762), mean=[291926.4573, 326355.7955], var=[0.0, 479861324.9042])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-170234.0537, 359563.4375), mean=[168810.1228, 301617.6838], var=[0.0, 11248464916.1243])</t>
+    <t>Pbox: ~ (range=[(18.3828, 19.4376), mean=[18.3828, 19.4376], var=[0, 0.0])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(1099319.7394, 1099319.7394), mean=1099319.7394, var=0)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(336156.7297, 352926.8474), mean=[336156.7297, 352926.8474], var=[0, 129.4995])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(297439.5175, 314209.6352), mean=[297439.5175, 314209.6352], var=[0, 129.4995])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(5105046.7214, 5356598.4872), mean=[5105046.7214, 5356598.4872], var=[0, 501.5494])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(-10.7065, 22.6139), mean=[10.6169, 18.9695], var=[0.0, 0.0044])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-1551818.8799, 12990896.8912), mean=[1871656.2622, 12471188.9851], var=[0.0, 37602197712611.06])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-404.1133, 510.516), mean=[-188.802, 477.8303], var=[0.0, 148734.7421])</t>
+    <t>Pbox: ~ (range=[(18.7067, 19.7615), mean=[18.7067, 19.7615], var=[0, 0.0])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(12007746.7727, 12510850.3043), mean=[12007746.7727, 12510850.3043], var=[0, 709.2979])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(448.6832, 480.3247), mean=[448.6832, 480.3247], var=[0, 5.6251])</t>
   </si>
   <si>
     <t>Yield Crop 1</t>
@@ -371,7 +368,7 @@
     <t>Financial Balance</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(99191.5756, 116695.9713), mean=[106221.8053, 110632.0801], var=[3008434.0189, 23585574.6498])</t>
+    <t>Pbox: ~ (range=[(116695.9713, 116695.9713), mean=116695.9713, var=0)</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(5834.7986, 5834.7986), mean=5834.7986, var=0)</t>
@@ -383,268 +380,253 @@
     <t>Pbox: ~ (range=[(0.0, 0.0), mean=0.0, var=0.0)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(443051.3085, 612459.7567), mean=[504354.9117, 559582.6258], var=[170581100.3426, 2500765694.1318])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(151017.8877, 320426.3359), mean=[212321.4909, 267549.205], var=[170581100.3426, 2500765694.1318])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(558551.534, 727959.9822), mean=[619855.1372, 675082.8513], var=[170581100.3426, 2500765694.1318])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(80445.1364, 118301.6711), mean=[106135.2833, 112154.3427], var=[436927.8053, 46986903.8359])</t>
+    <t>Pbox: ~ (range=[(595689.6389, 612459.7567), mean=[595689.6389, 612459.7567], var=[0, 129.4995])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(309190.6181, 325960.7359), mean=[309190.6181, 325960.7359], var=[0, 129.4995])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(716724.2645, 733494.3822), mean=[716724.2645, 733494.3822], var=[0, 129.4995])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(118301.6711, 118301.6711), mean=118301.6711, var=0)</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(5915.0836, 5915.0836), mean=5915.0836, var=0)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(279502.0736, 626381.1745), mean=[503520.155, 572776.4709], var=[6222402.6901, 4451572949.3361])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(3320.64, 137524.34), mean=8890.8336, var=[99266973.3866, 169246339.9553])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-144521.2872, 336561.5137), mean=[180878.4692, 282928.4315], var=[1577749.0953, 8111691563.427])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-0.0, -0.0), mean=0.0, var=0.0)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(251575.8932, 902067.1422), mean=[579860.7237, 804764.5407], var=[0.0, 22480401369.4065])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(81395.54, 119699.3235), mean=[107389.1982, 113479.3687], var=[447312.79, 48103697.6699])</t>
+    <t>Pbox: ~ (range=[(609611.0568, 626381.1745), mean=[609611.0568, 626381.1745], var=[0, 129.4995])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(323112.036, 339882.1537), mean=[323112.036, 339882.1537], var=[0, 129.4995])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(877381.9468, 910922.1822), mean=[877381.9468, 910922.1822], var=[0, 183.1399])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(119699.3235, 119699.3235), mean=119699.3235, var=0)</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(5984.9662, 5984.9662), mean=5984.9662, var=0)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(294854.1905, 645633.3005), mean=[521518.8905, 591395.2945], var=[6542848.7232, 4546088571.4308])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-129169.1703, 355813.6397), mean=[198681.0687, 301553.3155], var=[1683275.9453, 8248136175.1732])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-40047.6308, 1095426.4283), mean=[531259.4819, 954626.5045], var=[0.0, 75080457396.7788])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(82215.3538, 120904.932), mean=[108470.8195, 114622.33], var=[456368.8136, 49077575.967])</t>
+    <t>Pbox: ~ (range=[(628863.1828, 645633.3005), mean=[628863.1828, 645633.3005], var=[0, 129.4995])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(342364.162, 359134.2797), mean=[342364.162, 359134.2797], var=[0, 129.4995])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(1057291.7551, 1107602.1083), mean=[1057291.7551, 1107602.1083], var=[0, 224.2997])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(120904.932, 120904.932), mean=120904.932, var=0)</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(6045.2466, 6045.2466), mean=6045.2466, var=0)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(308720.4424, 662863.6825), mean=[537668.1035, 608079.3927], var=[6826779.1457, 4628417882.6736])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-115302.9184, 373044.0217), mean=[214662.4175, 318242.1218], var=[1777960.2126, 8366627010.3555])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-317804.9028, 1306016.0964), mean=[484484.9097, 1123390.607], var=[0.0, 174010570929.8746])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(82915.4603, 121934.5004), mean=[109394.5049, 115598.3987], var=[464174.3421, 49916976.9285])</t>
+    <t>Pbox: ~ (range=[(646093.5648, 662863.6825), mean=[646093.5648, 662863.6825], var=[0, 129.4995])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(359594.544, 376364.6617), mean=[359594.544, 376364.6617], var=[0, 129.4995])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(1254431.9455, 1321512.4164), mean=[1254431.9455, 1321512.4164], var=[0, 258.999])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(121934.5004, 121934.5004), mean=121934.5004, var=0)</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(6096.725, 6096.725), mean=6096.725, var=0)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(321212.7607, 678228.9083), mean=[552110.0301, 622978.1018], var=[7074817.1015, 4699312662.0202])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-102810.6001, 388409.2475), mean=[228962.1394, 333144.821], var=[1861556.683, 8468499082.8634])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-583069.8565, 1531970.9902), mean=[438940.549, 1309620.9839], var=[0.0, 332999460759.1904])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(83506.7419, 122804.0322), mean=[110174.6123, 116422.7469], var=[470818.13, 50631445.1229])</t>
+    <t>Pbox: ~ (range=[(661458.7906, 678228.9083), mean=[661458.7906, 678228.9083], var=[0, 129.4995])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(374959.7698, 391729.8875), mean=[374959.7698, 391729.8875], var=[0, 129.4995])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(1466937.3616, 1550787.9502), mean=[1466937.3616, 1550787.9502], var=[0, 289.5697])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(122804.0322, 122804.0322), mean=122804.0322, var=0)</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(6140.2016, 6140.2016), mean=6140.2016, var=0)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(332442.1848, 691884.674), mean=[564986.0146, 636239.8663], var=[7288294.2349, 4759608746.3791])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-91581.176, 402065.0132), mean=[241719.4237, 346409.5803], var=[1934123.4426, 8554845042.9216])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-837105.3862, 1771581.6498), mean=[393035.7337, 1511701.1724], var=[0.0, 565965977524.2638])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(84000.0812, 123529.5312), mean=[110825.4994, 117110.5467], var=[476397.5402, 51231450.9135])</t>
+    <t>Pbox: ~ (range=[(675114.5563, 691884.674), mean=[675114.5563, 691884.674], var=[0, 129.4995])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(388615.5355, 405385.6532), mean=[388615.5355, 405385.6532], var=[0, 129.4995])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(1693098.5435, 1793719.2498), mean=[1693098.5435, 1793719.2498], var=[0, 317.2077])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(123529.5312, 123529.5312), mean=123529.5312, var=0)</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(6176.4766, 6176.4766), mean=6176.4766, var=0)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(342518.9069, 703985.8284), mean=[576436.554, 648012.2835], var=[7469209.1917, 4810212311.3076])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-81504.4539, 414166.1676), mean=[253071.3919, 358184.4962], var=[1994956.1042, 8627154645.3167])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-1081064.1938, 2023293.4637), mean=[345320.8911, 1728155.3546], var=[0.0, 885280039974.9008])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(84406.3606, 124127.0009), mean=[111361.5241, 117676.97], var=[481017.0257, 51728227.0824])</t>
+    <t>Pbox: ~ (range=[(687215.7107, 703985.8284), mean=[687215.7107, 703985.8284], var=[0, 129.4995])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(400716.6899, 417486.8076), mean=[400716.6899, 417486.8076], var=[0, 129.4995])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(1931360.8797, 2048751.7037), mean=[1931360.8797, 2048751.7037], var=[0, 342.6234])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(124127.0009, 124127.0009), mean=124127.0009, var=0)</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(6206.35, 6206.35), mean=6206.35, var=0)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(351552.3145, 714686.4154), mean=[586601.3405, 658442.1458], var=[7620109.9133, 4852087458.31])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-72471.0463, 424866.7546), mean=[263155.4073, 368616.1885], var=[2045404.5725, 8686885603.1973])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-1315989.5937, 2285705.8647), mean=[294537.5359, 1957644.6612], var=[0.0, 1294344763514.435])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(84736.4626, 124612.445), mean=[111797.0442, 118137.1889], var=[484786.7697, 52133622.6528])</t>
+    <t>Pbox: ~ (range=[(697916.2977, 714686.4154), mean=[697916.2977, 714686.4154], var=[0, 129.4995])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(411417.2769, 428187.3946), mean=[411417.2769, 428187.3946], var=[0, 129.4995])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(2180323.8029, 2314484.7447), mean=[2180323.8029, 2314484.7447], var=[0, 366.2799])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(124612.445, 124612.445), mean=124612.445, var=0)</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(6230.6223, 6230.6223), mean=6230.6223, var=0)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(359651.0303, 724139.7146), mean=[595619.3017, 667675.4811], var=[7743988.3203, 4886245108.7345])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-64372.3305, 434320.0538), mean=[272108.2536, 377850.9724], var=[2087008.8567, 8735510388.3014])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-1542816.2779, 2557571.5648), mean=[239651.6256, 2199005.098], var=[0.0, 1798490778498.2278])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(85001.2697, 125001.8672), mean=[112146.4174, 118506.3755], var=[487821.4863, 52459973.9079])</t>
+    <t>Pbox: ~ (range=[(707369.5969, 724139.7146), mean=[707369.5969, 724139.7146], var=[0, 129.4995])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(420870.5761, 437640.6938), mean=[420870.5761, 437640.6938], var=[0, 129.4995])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(2438740.0253, 2589671.0848), mean=[2438740.0253, 2589671.0848], var=[0, 388.4985])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(125001.8672, 125001.8672), mean=125001.8672, var=0)</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(6250.0934, 6250.0934), mean=6250.0934, var=0)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(102256.6172, 146068.0918), mean=[106700.7871, 141130.1253], var=[0.0, 479861324.9042])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(388556.0361, 781172.721), mean=[625261.7242, 723698.8571], var=[0.0, 6671648960.6948])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-35467.3247, 491353.0602), mean=[301698.4443, 433875.5909], var=[0.0, 11128606893.8515])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-1740737.9563, 2886470.2713), mean=[201068.6351, 2499947.0662], var=[0.0, 2444173441781.3945])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(85211.6644, 125311.2712), mean=[112424.0017, 118799.7019], var=[490239.3813, 52719992.6082])</t>
+    <t>Pbox: ~ (range=[(715728.161, 732498.2787), mean=[715728.161, 732498.2787], var=[0, 129.4995])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(429229.1402, 445999.2579), mean=[429229.1402, 445999.2579], var=[0, 129.4995])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(2705514.8119, 2873215.9891), mean=[2705514.8119, 2873215.9891], var=[0, 409.5133])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(125311.2712, 125311.2712), mean=125311.2712, var=0)</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(6265.5636, 6265.5636), mean=6265.5636, var=0)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(395108.3674, 788588.4131), mean=[632399.9482, 730978.1898], var=[0.0, 6696887748.2497])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-28914.9934, 498768.7523), mean=[308795.2122, 441155.7016], var=[0.0, 11163305865.1047])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-1932107.3033, 3222784.67), mean=[156418.886, 2810901.7421], var=[0.0, 3208410397849.561])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(85378.5292, 125556.6606), mean=[112644.1547, 119032.34], var=[492161.2724, 52926671.4053])</t>
+    <t>Pbox: ~ (range=[(723143.8532, 739913.9709), mean=[723143.8532, 739913.9709], var=[0, 129.4995])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(436644.8324, 453414.9501), mean=[436644.8324, 453414.9501], var=[0, 129.4995])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(2979705.2906, 3164176.5855), mean=[2979705.2906, 3164176.5855], var=[0, 429.5012])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(125556.6606, 125556.6606), mean=125556.6606, var=0)</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(6277.833, 6277.833), mean=6277.833, var=0)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(401047.6604, 795212.4406), mean=[638803.9147, 737494.0701], var=[0.0, 6716939251.965])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-22975.7004, 505392.7798), mean=[315166.6144, 447672.0569], var=[0.0, 11190859248.0127])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-2117537.3574, 3565723.0961), mean=[105139.1751, 3131110.7209], var=[0.0, 4091152929027.888])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(85512.7465, 125754.0389), mean=[112821.2342, 119219.462], var=[493709.8698, 53093206.4535])</t>
+    <t>Pbox: ~ (range=[(729767.8806, 746537.9983), mean=[729767.8806, 746537.9983], var=[0, 129.4995])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(443268.8598, 460038.9775), mean=[443268.8598, 460038.9775], var=[0, 129.4995])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(3260519.7967, 3461761.2094), mean=[3260519.7967, 3461761.2094], var=[0, 448.5994])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(125754.0389, 125754.0389), mean=125754.0389, var=0)</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(6287.7019, 6287.7019), mean=6287.7019, var=0)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(406479.8431, 801195.3879), mean=[644609.8565, 743390.0295], var=[0.0, 6733089804.025])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-17543.5177, 511375.7271), mean=[320946.3896, 453568.3058], var=[0.0, 11213043227.9577])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-2297535.2287, 3914644.4695), mean=[46385.0507, 3459958.1481], var=[0.0, 5092152834972.848])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(85625.1988, 125919.41), mean=[112969.5982, 119376.2399], var=[495009.216, 53232937.2192])</t>
+    <t>Pbox: ~ (range=[(735750.828, 752520.9457), mean=[735750.828, 752520.9457], var=[0, 129.4995])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(449251.8072, 466021.9249), mean=[449251.8072, 466021.9249], var=[0, 129.4995])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(3547317.2502, 3765328.7806), mean=[3547317.2502, 3765328.7806], var=[0, 466.917])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(125919.41, 125919.41), mean=125919.41, var=0)</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(6295.9705, 6295.9705), mean=6295.9705, var=0)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(411510.2518, 806687.2481), mean=[649953.4147, 748808.9945], var=[0.0, 6746636564.6688])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-12513.109, 516867.5873), mean=[326268.0245, 458987.5134], var=[0.0, 11231647384.9434])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-2472502.6913, 4269057.7031), mean=[-20211.0241, 3796970.3469], var=[0.0, 6213532536398.575])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(85726.7687, 126068.7775), mean=[113103.6044, 119517.8457], var=[496184.2867, 53359303.4868])</t>
+    <t>Pbox: ~ (range=[(741242.6881, 758012.8058), mean=[741242.6881, 758012.8058], var=[0, 129.4995])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(454743.6673, 471513.785), mean=[454743.6673, 471513.785], var=[0, 129.4995])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(3839606.5639, 4074388.2119), mean=[3839606.5639, 4074388.2119], var=[0, 484.5427])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(126068.7775, 126068.7775), mean=126068.7775, var=0)</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(6303.4389, 6303.4389), mean=6303.4389, var=0)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(416243.6608, 811837.4519), mean=[654969.6684, 753893.2995], var=[0.0, 6758884273.7734])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-7779.7, 522017.7911), mean=[331264.4764, 464072.0375], var=[0.0, 11248464916.1243])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-2642736.745, 4628621.1406), mean=[-94772.8517, 4141815.8346], var=[0.0, 7456733462051.794])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(1275268.8896, 1846221.4331), mean=[1468285.1142, 1790395.2764], var=[0.0, 47806090287.091])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(11120344.7173, 16099050.8962), mean=[12803446.1962, 15612246.8102], var=[0.0, 3635098615685.9434])</t>
+    <t>Pbox: ~ (range=[(746392.892, 763163.0097), mean=[746392.892, 763163.0097], var=[0, 129.4995])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(459893.8712, 476663.9889), mean=[459893.8712, 476663.9889], var=[0, 129.4995])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(4137046.0814, 4388597.8472), mean=[4137046.0814, 4388597.8472], var=[0, 501.5494])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(1846221.4331, 1846221.4331), mean=1846221.4331, var=0)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(16099050.8962, 16099050.8962), mean=16099050.8962, var=0)</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(92311.0717, 92311.0717), mean=92311.0717, var=0)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(1971919.2388, 2385719.1454), mean=[1976363.4086, 2380781.1789], var=[0.0, 42807590675.5421])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(5254093.7786, 5667893.6852), mean=[5258537.9485, 5662955.7187], var=[0.0, 42807590675.5419])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(5452451.032, 10844957.1176), mean=[7135552.5109, 10358153.0316], var=[0.0, 4450463216839.446])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(52023.36, 1930875.16), mean=[55115.4585, 648067.3343], var=[0.0, 204992135966.8131])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(4349508.672, 6228360.472), mean=[4352600.7705, 4945552.6463], var=[0.0, 204992135966.8125])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-775909.44, 6495448.4456), mean=[1772054.4533, 6008643.1396], var=[0.0, 7456733462051.794])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-3212724.745, 4058633.1406), mean=[-664760.8517, 3571827.8346], var=[0.0, 7456733462051.795])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-202.0566, 255.258), mean=[-41.8085, 224.6416], var=[0.0, 29494.9603])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-17540939.6965, 37258882.5329), mean=[-12499242.1967, 36738452.097], var=[0.0, 675772894452204.4])</t>
+    <t>Pbox: ~ (range=[(2263965.8922, 2515517.658), mean=[2263965.8922, 2515517.658], var=[0, 501.5494])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(5546140.4321, 5797692.1979), mean=[5546140.4321, 5797692.1979], var=[0, 501.5494])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(10301358.6984, 10552910.4642), mean=[10301358.6984, 10552910.4642], var=[0, 501.5494])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(6003873.3864, 6255425.1522), mean=[6003873.3864, 6255425.1522], var=[0, 501.5494])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(3567058.0814, 3818609.8472), mean=[3567058.0814, 3818609.8472], var=[0, 501.5494])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(224.3416, 240.1623), mean=[224.3416, 240.1623], var=[0, 3.9775])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(34655988.3195, 36668402.4459), mean=[34655988.3195, 36668402.4459], var=[0, 1418.5958])</t>
   </si>
 </sst>
 </file>
@@ -1071,8 +1053,8 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
+      <c r="B2">
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -1081,43 +1063,43 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1134,43 +1116,43 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1181,57 +1163,57 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>292033.4208</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>18</v>
+        <v>286499.0208</v>
+      </c>
+      <c r="D4">
+        <v>286499.0208</v>
+      </c>
+      <c r="E4">
+        <v>286499.0208</v>
+      </c>
+      <c r="F4">
+        <v>286499.0208</v>
+      </c>
+      <c r="G4">
+        <v>286499.0208</v>
+      </c>
+      <c r="H4">
+        <v>286499.0208</v>
+      </c>
+      <c r="I4">
+        <v>286499.0208</v>
+      </c>
+      <c r="J4">
+        <v>286499.0208</v>
+      </c>
+      <c r="K4">
+        <v>286499.0208</v>
+      </c>
+      <c r="L4">
+        <v>286499.0208</v>
+      </c>
+      <c r="M4">
+        <v>286499.0208</v>
+      </c>
+      <c r="N4">
+        <v>286499.0208</v>
+      </c>
+      <c r="O4">
+        <v>286499.0208</v>
+      </c>
+      <c r="P4">
+        <v>286499.0208</v>
+      </c>
+      <c r="Q4">
+        <v>286499.0208</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
+      <c r="B5">
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -1240,46 +1222,46 @@
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1405,46 +1387,46 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1458,46 +1440,46 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1511,49 +1493,49 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1624,66 +1606,66 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
+        <v>88</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="O2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="Q2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="R2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
+        <v>89</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1736,10 +1718,10 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
+        <v>90</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -1792,10 +1774,10 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
+        <v>91</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -1848,10 +1830,10 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
+        <v>92</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -1860,51 +1842,51 @@
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R6" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1960,7 +1942,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2016,7 +1998,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2072,7 +2054,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2128,7 +2110,7 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2184,10 +2166,10 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
+        <v>98</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
@@ -2196,51 +2178,51 @@
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R12" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2296,7 +2278,7 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2352,63 +2334,63 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E15" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F15" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G15" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J15" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K15" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M15" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="N15" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O15" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P15" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Q15" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="R15" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2464,111 +2446,111 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L17" t="s">
-        <v>169</v>
+        <v>119</v>
       </c>
       <c r="M17" t="s">
-        <v>169</v>
+        <v>119</v>
       </c>
       <c r="N17" t="s">
-        <v>169</v>
+        <v>119</v>
       </c>
       <c r="O17" t="s">
-        <v>169</v>
+        <v>119</v>
       </c>
       <c r="P17" t="s">
-        <v>169</v>
+        <v>119</v>
       </c>
       <c r="Q17" t="s">
-        <v>169</v>
+        <v>119</v>
       </c>
       <c r="R17" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R18" t="s">
         <v>10</v>
@@ -2576,7 +2558,7 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
@@ -2588,107 +2570,107 @@
         <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R19" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E20" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F20" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J20" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L20" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="M20" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="N20" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="O20" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P20" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q20" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="R20" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2744,7 +2726,7 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2800,63 +2782,63 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5534.400000000001</v>
-      </c>
-      <c r="D23" t="s">
-        <v>128</v>
-      </c>
-      <c r="E23" t="s">
-        <v>128</v>
-      </c>
-      <c r="F23" t="s">
-        <v>128</v>
-      </c>
-      <c r="G23" t="s">
-        <v>128</v>
-      </c>
-      <c r="H23" t="s">
-        <v>128</v>
-      </c>
-      <c r="I23" t="s">
-        <v>128</v>
-      </c>
-      <c r="J23" t="s">
-        <v>128</v>
-      </c>
-      <c r="K23" t="s">
-        <v>128</v>
-      </c>
-      <c r="L23" t="s">
-        <v>128</v>
-      </c>
-      <c r="M23" t="s">
-        <v>128</v>
-      </c>
-      <c r="N23" t="s">
-        <v>128</v>
-      </c>
-      <c r="O23" t="s">
-        <v>128</v>
-      </c>
-      <c r="P23" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>128</v>
-      </c>
-      <c r="R23" t="s">
-        <v>204</v>
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -2912,7 +2894,7 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -2968,58 +2950,58 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>292033.4208</v>
-      </c>
-      <c r="D26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" t="s">
-        <v>18</v>
-      </c>
-      <c r="J26" t="s">
-        <v>18</v>
-      </c>
-      <c r="K26" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26" t="s">
-        <v>18</v>
-      </c>
-      <c r="M26" t="s">
-        <v>18</v>
-      </c>
-      <c r="N26" t="s">
-        <v>18</v>
-      </c>
-      <c r="O26" t="s">
-        <v>18</v>
-      </c>
-      <c r="P26" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>18</v>
-      </c>
-      <c r="R26" t="s">
-        <v>205</v>
+        <v>286499.0208</v>
+      </c>
+      <c r="D26">
+        <v>286499.0208</v>
+      </c>
+      <c r="E26">
+        <v>286499.0208</v>
+      </c>
+      <c r="F26">
+        <v>286499.0208</v>
+      </c>
+      <c r="G26">
+        <v>286499.0208</v>
+      </c>
+      <c r="H26">
+        <v>286499.0208</v>
+      </c>
+      <c r="I26">
+        <v>286499.0208</v>
+      </c>
+      <c r="J26">
+        <v>286499.0208</v>
+      </c>
+      <c r="K26">
+        <v>286499.0208</v>
+      </c>
+      <c r="L26">
+        <v>286499.0208</v>
+      </c>
+      <c r="M26">
+        <v>286499.0208</v>
+      </c>
+      <c r="N26">
+        <v>286499.0208</v>
+      </c>
+      <c r="O26">
+        <v>286499.0208</v>
+      </c>
+      <c r="P26">
+        <v>286499.0208</v>
+      </c>
+      <c r="Q26">
+        <v>286499.0208</v>
+      </c>
+      <c r="R26">
+        <v>4297485.312</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3030,52 +3012,52 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D27" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E27" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F27" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G27" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H27" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I27" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J27" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K27" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L27" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M27" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="N27" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="O27" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P27" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="Q27" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="R27" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3136,7 +3118,7 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B29">
         <v>2160000</v>
@@ -3192,55 +3174,55 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="G30" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="H30" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="I30" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="J30" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="K30" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="L30" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="M30" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="N30" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="O30" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="P30" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="Q30" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="R30" t="s">
         <v>10</v>
@@ -3304,7 +3286,7 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
@@ -3313,49 +3295,49 @@
         <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R32" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3369,105 +3351,105 @@
         <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R33" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B34">
         <v>569988</v>
       </c>
       <c r="C34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D34" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E34" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F34" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G34" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H34" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I34" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K34" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L34" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M34" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N34" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="O34" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P34" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="Q34" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="R34" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/results_JPFA.xlsx
+++ b/results_JPFA.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="210">
   <si>
     <t>Cumulative Sum</t>
   </si>
@@ -50,235 +50,238 @@
     <t>Pbox: ~ (range=[(0.0, 0.0), mean=0.0, var=0)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(1017588.8695, 1017588.8695), mean=1017588.8695, var=0)</t>
+    <t>Pbox: ~ (range=[(864950.5391, 1017588.8695), mean=[926254.1422, 964711.7386], var=[228756509.3042, 1793409359.4544])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(405129.1129, 421899.2306), mean=[405129.1129, 421899.2306], var=[0, 129.4995])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(146736.2645, 163506.3822), mean=[146736.2645, 163506.3822], var=[0, 129.4995])</t>
+    <t>Pbox: ~ (range=[(-11436.466, 157971.9822), mean=[49867.1372, 105094.8513], var=[170581100.3426, 2500765694.1318])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(1731213.8645, 1747983.9822), mean=[1731213.8645, 1747983.9822], var=[0, 129.4995])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(9.2286, 10.2833), mean=[9.2286, 10.2833], var=[0, 0.0])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(1031590.5723, 1031590.5723), mean=1031590.5723, var=0)</t>
+    <t>Pbox: ~ (range=[(-0.7193, 9.9353), mean=[3.1363, 6.6097], var=[0.6747, 9.8917])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(701481.5892, 1031590.5723), mean=[925499.6705, 977985.8687], var=[33223291.2317, 3572808988.6341])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(405209.3979, 421979.5156), mean=[405209.3979, 421979.5156], var=[0, 129.4995])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(160657.6823, 177427.8), mean=[160657.6823, 177427.8], var=[0, 129.4995])</t>
+    <t>Pbox: ~ (range=[(289819.6608, 424023.3608), mean=295389.8544, var=[99266973.3866, 169246339.9553])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-306975.6409, 174107.16), mean=[18424.1156, 120474.0778], var=[1577749.0953, 8111691563.427])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(1888550.9068, 1922091.1422), mean=[1888550.9068, 1922091.1422], var=[0, 183.1399])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(10.1042, 11.1589), mean=[10.1042, 11.1589], var=[0, 0.0])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(1043778.101, 1043778.101), mean=1043778.101, var=0)</t>
+    <t>Pbox: ~ (range=[(-19.3065, 10.9501), mean=[1.1587, 7.5769], var=[0.0062, 32.0856])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(709769.1087, 1043778.101), mean=[936433.8086, 989540.095], var=[34012948.8547, 3657728204.905])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(398144.8005, 414914.9182), mean=[398144.8005, 414914.9182], var=[0, 129.4995])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(179909.8084, 196679.9261), mean=[179909.8084, 196679.9261], var=[0, 129.4995])</t>
+    <t>Pbox: ~ (range=[(-291623.524, 193359.2861), mean=[36226.715, 139098.9618], var=[1683275.9453, 8248136175.1732])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(2065140.0751, 2115450.4283), mean=[2065140.0751, 2115450.4283], var=[0, 224.2997])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(11.315, 12.3697), mean=[11.315, 12.3697], var=[0, 0.0])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(1054291.0074, 1054291.0074), mean=1054291.0074, var=0)</t>
+    <t>Pbox: ~ (range=[(-18.341, 12.1609), mean=[2.2784, 8.7483], var=[0.0067, 32.6253])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(716917.8851, 1054291.0074), mean=[945865.5461, 999506.7176], var=[34701554.3947, 3731780352.4122])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(391427.3249, 408197.4426), mean=[391427.3249, 408197.4426], var=[0, 129.4995])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(197140.1904, 213910.3081), mean=[197140.1904, 213910.3081], var=[0, 129.4995])</t>
+    <t>Pbox: ~ (range=[(-277757.272, 210589.6681), mean=[52208.0639, 155787.7681], var=[1777960.2126, 8366627010.3555])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(2258959.6255, 2326040.0964), mean=[2258959.6255, 2326040.0964], var=[0, 258.999])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(12.3987, 13.4534), mean=[12.3987, 13.4534], var=[0, 0.0])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(1063268.8435, 1063268.8435), mean=1063268.8435, var=0)</t>
+    <t>Pbox: ~ (range=[(-17.4689, 13.2445), mean=[3.2835, 9.7979], var=[0.007, 33.094])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(723022.8136, 1063268.8435), mean=[953920.0829, 1008018.0369], var=[35295074.2976, 3795607058.478])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(385039.9351, 401810.0528), mean=[385039.9351, 401810.0528], var=[0, 129.4995])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(212505.4162, 229275.5339), mean=[212505.4162, 229275.5339], var=[0, 129.4995])</t>
+    <t>Pbox: ~ (range=[(-265264.9537, 225954.8939), mean=[66507.7857, 170690.4674], var=[1861556.683, 8468499082.8634])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(2468144.4016, 2551994.9902), mean=[2468144.4016, 2551994.9902], var=[0, 289.5697])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(13.365, 14.4197), mean=[13.365, 14.4197], var=[0, 0.0])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(1070851.1609, 1070851.1609), mean=1070851.1609, var=0)</t>
+    <t>Pbox: ~ (range=[(-16.6832, 14.2109), mean=[4.1828, 10.7352], var=[0.0074, 33.497])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(728178.7894, 1070851.1609), mean=[960722.6192, 1015206.3532], var=[35800257.2945, 3849934076.833])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(378966.4869, 395736.6046), mean=[378966.4869, 395736.6046], var=[0, 129.4995])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(226161.1818, 242931.2995), mean=[226161.1818, 242931.2995], var=[0, 129.4995])</t>
+    <t>Pbox: ~ (range=[(-254035.5297, 239610.6595), mean=[79265.0701, 183955.2266], var=[1934123.4426, 8554845042.9216])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(2690984.9435, 2791605.6498), mean=[2690984.9435, 2791605.6498], var=[0, 317.2077])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(14.2239, 15.2786), mean=[14.2239, 15.2786], var=[0, 0.0])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(1077177.5117, 1077177.5117), mean=1077177.5117, var=0)</t>
+    <t>Pbox: ~ (range=[(-15.977, 15.0697), mean=[4.9852, 11.5694], var=[0.0077, 33.8385])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(732480.708, 1077177.5117), mean=[966398.3551, 1021203.9668], var=[36224506.7235, 3895557557.1403])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(373191.6833, 389961.801), mean=[373191.6833, 389961.801], var=[0, 129.4995])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(238262.3362, 255032.4539), mean=[238262.3362, 255032.4539], var=[0, 129.4995])</t>
+    <t>Pbox: ~ (range=[(-243958.8075, 251711.8139), mean=[90617.0383, 195730.1425], var=[1994956.1042, 8627154645.3167])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(2925926.6397, 3043317.4637), mean=[2925926.6397, 3043317.4637], var=[0, 342.6234])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(14.9849, 16.0397), mean=[14.9849, 16.0397], var=[0, 0.0])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(1082387.4476, 1082387.4476), mean=1082387.4476, var=0)</t>
+    <t>Pbox: ~ (range=[(-15.3432, 15.8308), mean=[5.6991, 12.31], var=[0.0079, 34.1245])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(736023.4644, 1082387.4476), mean=[971072.4904, 1026143.178], var=[36575765.0102, 3933331622.1838])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(367701.0322, 384471.1499), mean=[367701.0322, 384471.1499], var=[0, 129.4995])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(248962.9233, 265733.041), mean=[248962.9233, 265733.041], var=[0, 129.4995])</t>
+    <t>Pbox: ~ (range=[(-234925.4, 262412.401), mean=[100701.0536, 206161.8348], var=[2045404.5725, 8686885603.1973])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(3171568.9229, 3305729.8647), mean=[3171568.9229, 3305729.8647], var=[0, 366.2799])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(15.6579, 16.7126), mean=[15.6579, 16.7126], var=[0, 0.0])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(1086620.5206, 1086620.5206), mean=1086620.5206, var=0)</t>
+    <t>Pbox: ~ (range=[(-14.7751, 16.5038), mean=[6.3334, 12.9661], var=[0.0081, 34.3608])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(738901.954, 1086620.5206), mean=[974870.2254, 1030156.2871], var=[36862410.3092, 3964157252.721])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(362480.806, 379250.9237), mean=[362480.806, 379250.9237], var=[0, 129.4995])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(258416.2224, 275186.3401), mean=[258416.2224, 275186.3401], var=[0, 129.4995])</t>
+    <t>Pbox: ~ (range=[(-226826.6842, 271865.7001), mean=[109653.8999, 215396.6187], var=[2087008.8567, 8735510388.3014])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(3426664.5053, 3577595.5648), mean=[3426664.5053, 3577595.5648], var=[0, 388.4985])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(16.2525, 17.3072), mean=[16.2525, 17.3072], var=[0, 0.0])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(1090016.2824, 1090016.2824), mean=1090016.2824, var=0)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(357518.0036, 374288.1213), mean=[357518.0036, 374288.1213], var=[0, 129.4995])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(266774.7866, 283544.9043), mean=[266774.7866, 283544.9043], var=[0, 129.4995])</t>
+    <t>Pbox: ~ (range=[(-14.2657, 17.0983), mean=[6.8964, 13.5469], var=[0.0083, 34.5531])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(741211.072, 1090016.2824), mean=[977916.7601, 1033375.5944], var=[37093165.3049, 3988972480.0002])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(308843.5614, 352655.0359), mean=[313287.7312, 347717.0694], var=[0.0, 479861324.9042])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-197921.6784, 328898.7065), mean=[139244.0906, 271421.2372], var=[0.0, 11128606893.8515])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(3690118.6519, 3857819.8291), mean=[3690118.6519, 3857819.8291], var=[0, 409.5133])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(16.7782, 17.8329), mean=[16.7782, 17.8329], var=[0, 0.0])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(1092714.2849, 1092714.2849), mean=1092714.2849, var=0)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(352800.314, 369570.4317), mean=[352800.314, 369570.4317], var=[0, 129.4995])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(274190.4787, 290960.5964), mean=[274190.4787, 290960.5964], var=[0, 129.4995])</t>
+    <t>Pbox: ~ (range=[(-12.4478, 20.6853), mean=[8.7574, 17.0704], var=[0.0, 0.0044])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(743045.7137, 1092714.2849), mean=[980337.2945, 1035933.4002], var=[37277018.1724, 4008743885.9418])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(304125.8718, 347937.3463), mean=[308570.0416, 342999.3798], var=[0.0, 479861324.9042])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-191369.347, 336314.3987), mean=[146340.8586, 278701.3479], var=[0.0, 11163305865.1047])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(3960988.4906, 4145459.7855), mean=[3960988.4906, 4145459.7855], var=[0, 429.5012])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(17.2446, 18.2993), mean=[17.2446, 18.2993], var=[0, 0.0])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(1094854.08, 1094854.08), mean=1094854.08, var=0)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(348316.0817, 365086.1994), mean=[348316.0817, 365086.1994], var=[0, 129.4995])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(280814.5061, 297584.6239), mean=[280814.5061, 297584.6239], var=[0, 129.4995])</t>
+    <t>Pbox: ~ (range=[(-12.0357, 21.1517), mean=[9.2038, 17.5283], var=[0.0, 0.0044])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(744500.7744, 1094854.08), mean=[982257.0286, 1037962.0048], var=[37423155.6981, 4024459410.9847])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(299641.6394, 343453.114), mean=[304085.8093, 338515.1475], var=[0.0, 479861324.9042])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-185430.054, 342938.4261), mean=[152712.2608, 285217.7033], var=[0.0, 11190859248.0127])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(4238482.3567, 4439723.7694), mean=[4238482.3567, 4439723.7694], var=[0, 448.5994])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(17.6612, 18.7159), mean=[17.6612, 18.7159], var=[0, 0.0])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(1096575.2196, 1096575.2196), mean=1096575.2196, var=0)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(344054.2739, 360824.3916), mean=[344054.2739, 360824.3916], var=[0, 129.4995])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(286797.4535, 303567.5712), mean=[286797.4535, 303567.5712], var=[0, 129.4995])</t>
+    <t>Pbox: ~ (range=[(-11.6622, 21.5683), mean=[9.6045, 17.9381], var=[0.0, 0.0044])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(745671.1493, 1096575.2196), mean=[983801.1626, 1039593.7085], var=[37540908.5602, 4037122469.596])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(295379.8316, 339191.3062), mean=[299824.0015, 334253.3397], var=[0.0, 479861324.9042])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-179997.8713, 348921.3735), mean=[158492.036, 291113.9522], var=[0.0, 11213043227.9577])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(4521959.1702, 4739970.7006), mean=[4521959.1702, 4739970.7006], var=[0, 466.917])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(18.0374, 19.0922), mean=[18.0374, 19.0922], var=[0, 0.0])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(1098017.2554, 1098017.2554), mean=1098017.2554, var=0)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(340004.4496, 356774.5673), mean=[340004.4496, 356774.5673], var=[0, 129.4995])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(292289.3137, 309059.4314), mean=[292289.3137, 309059.4314], var=[0, 129.4995])</t>
+    <t>Pbox: ~ (range=[(-11.3205, 21.9446), mean=[9.968, 18.3089], var=[0.0, 0.0044])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(746651.7337, 1098017.2554), mean=[985094.8965, 1040960.8116], var=[37639708.7692, 4047747373.4461])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(291330.0073, 335141.4818), mean=[295774.1772, 330203.5153], var=[0.0, 479861324.9042])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-174967.4626, 354413.2336), mean=[163813.6708, 296533.1597], var=[0.0, 11231647384.9434])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(4810927.8439, 5045709.4919), mean=[4810927.8439, 5045709.4919], var=[0, 484.5427])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(18.3828, 19.4376), mean=[18.3828, 19.4376], var=[0, 0.0])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(1099319.7394, 1099319.7394), mean=1099319.7394, var=0)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(336156.7297, 352926.8474), mean=[336156.7297, 352926.8474], var=[0, 129.4995])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(297439.5175, 314209.6352), mean=[297439.5175, 314209.6352], var=[0, 129.4995])</t>
+    <t>Pbox: ~ (range=[(-11.0042, 22.29), mean=[10.3027, 18.6497], var=[0.0, 0.0044])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(747537.4228, 1099319.7394), mean=[986263.4304, 1042195.6144], var=[37729059.2683, 4057356062.2478])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(287482.2875, 331293.762), mean=[291926.4573, 326355.7955], var=[0.0, 479861324.9042])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-170234.0537, 359563.4375), mean=[168810.1228, 301617.6838], var=[0.0, 11248464916.1243])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(5105046.7214, 5356598.4872), mean=[5105046.7214, 5356598.4872], var=[0, 501.5494])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(18.7067, 19.7615), mean=[18.7067, 19.7615], var=[0, 0.0])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(12007746.7727, 12510850.3043), mean=[12007746.7727, 12510850.3043], var=[0, 709.2979])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(448.6832, 480.3247), mean=[448.6832, 480.3247], var=[0, 5.6251])</t>
+    <t>Pbox: ~ (range=[(-10.7065, 22.6139), mean=[10.6169, 18.9695], var=[0.0, 0.0044])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-1551818.8799, 12990896.8912), mean=[1871656.2622, 12471188.9851], var=[0.0, 37602197712611.06])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-404.1133, 510.516), mean=[-188.802, 477.8303], var=[0.0, 148734.7421])</t>
   </si>
   <si>
     <t>Yield Crop 1</t>
@@ -368,7 +371,7 @@
     <t>Financial Balance</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(116695.9713, 116695.9713), mean=116695.9713, var=0)</t>
+    <t>Pbox: ~ (range=[(99191.5756, 116695.9713), mean=[106221.8053, 110632.0801], var=[3008434.0189, 23585574.6498])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(5834.7986, 5834.7986), mean=5834.7986, var=0)</t>
@@ -380,253 +383,268 @@
     <t>Pbox: ~ (range=[(0.0, 0.0), mean=0.0, var=0.0)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(595689.6389, 612459.7567), mean=[595689.6389, 612459.7567], var=[0, 129.4995])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(309190.6181, 325960.7359), mean=[309190.6181, 325960.7359], var=[0, 129.4995])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(716724.2645, 733494.3822), mean=[716724.2645, 733494.3822], var=[0, 129.4995])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(118301.6711, 118301.6711), mean=118301.6711, var=0)</t>
+    <t>Pbox: ~ (range=[(443051.3085, 612459.7567), mean=[504354.9117, 559582.6258], var=[170581100.3426, 2500765694.1318])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(151017.8877, 320426.3359), mean=[212321.4909, 267549.205], var=[170581100.3426, 2500765694.1318])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(558551.534, 727959.9822), mean=[619855.1372, 675082.8513], var=[170581100.3426, 2500765694.1318])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(80445.1364, 118301.6711), mean=[106135.2833, 112154.3427], var=[436927.8053, 46986903.8359])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(5915.0836, 5915.0836), mean=5915.0836, var=0)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(609611.0568, 626381.1745), mean=[609611.0568, 626381.1745], var=[0, 129.4995])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(323112.036, 339882.1537), mean=[323112.036, 339882.1537], var=[0, 129.4995])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(877381.9468, 910922.1822), mean=[877381.9468, 910922.1822], var=[0, 183.1399])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(119699.3235, 119699.3235), mean=119699.3235, var=0)</t>
+    <t>Pbox: ~ (range=[(279502.0736, 626381.1745), mean=[503520.155, 572776.4709], var=[6222402.6901, 4451572949.3361])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(3320.64, 137524.34), mean=8890.8336, var=[99266973.3866, 169246339.9553])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-144521.2872, 336561.5137), mean=[180878.4692, 282928.4315], var=[1577749.0953, 8111691563.427])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-0.0, -0.0), mean=0.0, var=0.0)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(251575.8932, 902067.1422), mean=[579860.7237, 804764.5407], var=[0.0, 22480401369.4065])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(81395.54, 119699.3235), mean=[107389.1982, 113479.3687], var=[447312.79, 48103697.6699])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(5984.9662, 5984.9662), mean=5984.9662, var=0)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(628863.1828, 645633.3005), mean=[628863.1828, 645633.3005], var=[0, 129.4995])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(342364.162, 359134.2797), mean=[342364.162, 359134.2797], var=[0, 129.4995])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(1057291.7551, 1107602.1083), mean=[1057291.7551, 1107602.1083], var=[0, 224.2997])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(120904.932, 120904.932), mean=120904.932, var=0)</t>
+    <t>Pbox: ~ (range=[(294854.1905, 645633.3005), mean=[521518.8905, 591395.2945], var=[6542848.7232, 4546088571.4308])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-129169.1703, 355813.6397), mean=[198681.0687, 301553.3155], var=[1683275.9453, 8248136175.1732])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-40047.6308, 1095426.4283), mean=[531259.4819, 954626.5045], var=[0.0, 75080457396.7788])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(82215.3538, 120904.932), mean=[108470.8195, 114622.33], var=[456368.8136, 49077575.967])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(6045.2466, 6045.2466), mean=6045.2466, var=0)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(646093.5648, 662863.6825), mean=[646093.5648, 662863.6825], var=[0, 129.4995])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(359594.544, 376364.6617), mean=[359594.544, 376364.6617], var=[0, 129.4995])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(1254431.9455, 1321512.4164), mean=[1254431.9455, 1321512.4164], var=[0, 258.999])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(121934.5004, 121934.5004), mean=121934.5004, var=0)</t>
+    <t>Pbox: ~ (range=[(308720.4424, 662863.6825), mean=[537668.1035, 608079.3927], var=[6826779.1457, 4628417882.6736])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-115302.9184, 373044.0217), mean=[214662.4175, 318242.1218], var=[1777960.2126, 8366627010.3555])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-317804.9028, 1306016.0964), mean=[484484.9097, 1123390.607], var=[0.0, 174010570929.8746])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(82915.4603, 121934.5004), mean=[109394.5049, 115598.3987], var=[464174.3421, 49916976.9285])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(6096.725, 6096.725), mean=6096.725, var=0)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(661458.7906, 678228.9083), mean=[661458.7906, 678228.9083], var=[0, 129.4995])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(374959.7698, 391729.8875), mean=[374959.7698, 391729.8875], var=[0, 129.4995])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(1466937.3616, 1550787.9502), mean=[1466937.3616, 1550787.9502], var=[0, 289.5697])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(122804.0322, 122804.0322), mean=122804.0322, var=0)</t>
+    <t>Pbox: ~ (range=[(321212.7607, 678228.9083), mean=[552110.0301, 622978.1018], var=[7074817.1015, 4699312662.0202])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-102810.6001, 388409.2475), mean=[228962.1394, 333144.821], var=[1861556.683, 8468499082.8634])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-583069.8565, 1531970.9902), mean=[438940.549, 1309620.9839], var=[0.0, 332999460759.1904])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(83506.7419, 122804.0322), mean=[110174.6123, 116422.7469], var=[470818.13, 50631445.1229])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(6140.2016, 6140.2016), mean=6140.2016, var=0)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(675114.5563, 691884.674), mean=[675114.5563, 691884.674], var=[0, 129.4995])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(388615.5355, 405385.6532), mean=[388615.5355, 405385.6532], var=[0, 129.4995])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(1693098.5435, 1793719.2498), mean=[1693098.5435, 1793719.2498], var=[0, 317.2077])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(123529.5312, 123529.5312), mean=123529.5312, var=0)</t>
+    <t>Pbox: ~ (range=[(332442.1848, 691884.674), mean=[564986.0146, 636239.8663], var=[7288294.2349, 4759608746.3791])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-91581.176, 402065.0132), mean=[241719.4237, 346409.5803], var=[1934123.4426, 8554845042.9216])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-837105.3862, 1771581.6498), mean=[393035.7337, 1511701.1724], var=[0.0, 565965977524.2638])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(84000.0812, 123529.5312), mean=[110825.4994, 117110.5467], var=[476397.5402, 51231450.9135])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(6176.4766, 6176.4766), mean=6176.4766, var=0)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(687215.7107, 703985.8284), mean=[687215.7107, 703985.8284], var=[0, 129.4995])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(400716.6899, 417486.8076), mean=[400716.6899, 417486.8076], var=[0, 129.4995])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(1931360.8797, 2048751.7037), mean=[1931360.8797, 2048751.7037], var=[0, 342.6234])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(124127.0009, 124127.0009), mean=124127.0009, var=0)</t>
+    <t>Pbox: ~ (range=[(342518.9069, 703985.8284), mean=[576436.554, 648012.2835], var=[7469209.1917, 4810212311.3076])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-81504.4539, 414166.1676), mean=[253071.3919, 358184.4962], var=[1994956.1042, 8627154645.3167])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-1081064.1938, 2023293.4637), mean=[345320.8911, 1728155.3546], var=[0.0, 885280039974.9008])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(84406.3606, 124127.0009), mean=[111361.5241, 117676.97], var=[481017.0257, 51728227.0824])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(6206.35, 6206.35), mean=6206.35, var=0)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(697916.2977, 714686.4154), mean=[697916.2977, 714686.4154], var=[0, 129.4995])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(411417.2769, 428187.3946), mean=[411417.2769, 428187.3946], var=[0, 129.4995])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(2180323.8029, 2314484.7447), mean=[2180323.8029, 2314484.7447], var=[0, 366.2799])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(124612.445, 124612.445), mean=124612.445, var=0)</t>
+    <t>Pbox: ~ (range=[(351552.3145, 714686.4154), mean=[586601.3405, 658442.1458], var=[7620109.9133, 4852087458.31])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-72471.0463, 424866.7546), mean=[263155.4073, 368616.1885], var=[2045404.5725, 8686885603.1973])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-1315989.5937, 2285705.8647), mean=[294537.5359, 1957644.6612], var=[0.0, 1294344763514.435])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(84736.4626, 124612.445), mean=[111797.0442, 118137.1889], var=[484786.7697, 52133622.6528])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(6230.6223, 6230.6223), mean=6230.6223, var=0)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(707369.5969, 724139.7146), mean=[707369.5969, 724139.7146], var=[0, 129.4995])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(420870.5761, 437640.6938), mean=[420870.5761, 437640.6938], var=[0, 129.4995])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(2438740.0253, 2589671.0848), mean=[2438740.0253, 2589671.0848], var=[0, 388.4985])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(125001.8672, 125001.8672), mean=125001.8672, var=0)</t>
+    <t>Pbox: ~ (range=[(359651.0303, 724139.7146), mean=[595619.3017, 667675.4811], var=[7743988.3203, 4886245108.7345])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-64372.3305, 434320.0538), mean=[272108.2536, 377850.9724], var=[2087008.8567, 8735510388.3014])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-1542816.2779, 2557571.5648), mean=[239651.6256, 2199005.098], var=[0.0, 1798490778498.2278])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(85001.2697, 125001.8672), mean=[112146.4174, 118506.3755], var=[487821.4863, 52459973.9079])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(6250.0934, 6250.0934), mean=6250.0934, var=0)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(715728.161, 732498.2787), mean=[715728.161, 732498.2787], var=[0, 129.4995])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(429229.1402, 445999.2579), mean=[429229.1402, 445999.2579], var=[0, 129.4995])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(2705514.8119, 2873215.9891), mean=[2705514.8119, 2873215.9891], var=[0, 409.5133])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(125311.2712, 125311.2712), mean=125311.2712, var=0)</t>
+    <t>Pbox: ~ (range=[(102256.6172, 146068.0918), mean=[106700.7871, 141130.1253], var=[0.0, 479861324.9042])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(388556.0361, 781172.721), mean=[625261.7242, 723698.8571], var=[0.0, 6671648960.6948])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-35467.3247, 491353.0602), mean=[301698.4443, 433875.5909], var=[0.0, 11128606893.8515])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-1740737.9563, 2886470.2713), mean=[201068.6351, 2499947.0662], var=[0.0, 2444173441781.3945])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(85211.6644, 125311.2712), mean=[112424.0017, 118799.7019], var=[490239.3813, 52719992.6082])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(6265.5636, 6265.5636), mean=6265.5636, var=0)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(723143.8532, 739913.9709), mean=[723143.8532, 739913.9709], var=[0, 129.4995])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(436644.8324, 453414.9501), mean=[436644.8324, 453414.9501], var=[0, 129.4995])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(2979705.2906, 3164176.5855), mean=[2979705.2906, 3164176.5855], var=[0, 429.5012])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(125556.6606, 125556.6606), mean=125556.6606, var=0)</t>
+    <t>Pbox: ~ (range=[(395108.3674, 788588.4131), mean=[632399.9482, 730978.1898], var=[0.0, 6696887748.2497])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-28914.9934, 498768.7523), mean=[308795.2122, 441155.7016], var=[0.0, 11163305865.1047])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-1932107.3033, 3222784.67), mean=[156418.886, 2810901.7421], var=[0.0, 3208410397849.561])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(85378.5292, 125556.6606), mean=[112644.1547, 119032.34], var=[492161.2724, 52926671.4053])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(6277.833, 6277.833), mean=6277.833, var=0)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(729767.8806, 746537.9983), mean=[729767.8806, 746537.9983], var=[0, 129.4995])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(443268.8598, 460038.9775), mean=[443268.8598, 460038.9775], var=[0, 129.4995])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(3260519.7967, 3461761.2094), mean=[3260519.7967, 3461761.2094], var=[0, 448.5994])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(125754.0389, 125754.0389), mean=125754.0389, var=0)</t>
+    <t>Pbox: ~ (range=[(401047.6604, 795212.4406), mean=[638803.9147, 737494.0701], var=[0.0, 6716939251.965])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-22975.7004, 505392.7798), mean=[315166.6144, 447672.0569], var=[0.0, 11190859248.0127])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-2117537.3574, 3565723.0961), mean=[105139.1751, 3131110.7209], var=[0.0, 4091152929027.888])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(85512.7465, 125754.0389), mean=[112821.2342, 119219.462], var=[493709.8698, 53093206.4535])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(6287.7019, 6287.7019), mean=6287.7019, var=0)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(735750.828, 752520.9457), mean=[735750.828, 752520.9457], var=[0, 129.4995])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(449251.8072, 466021.9249), mean=[449251.8072, 466021.9249], var=[0, 129.4995])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(3547317.2502, 3765328.7806), mean=[3547317.2502, 3765328.7806], var=[0, 466.917])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(125919.41, 125919.41), mean=125919.41, var=0)</t>
+    <t>Pbox: ~ (range=[(406479.8431, 801195.3879), mean=[644609.8565, 743390.0295], var=[0.0, 6733089804.025])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-17543.5177, 511375.7271), mean=[320946.3896, 453568.3058], var=[0.0, 11213043227.9577])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-2297535.2287, 3914644.4695), mean=[46385.0507, 3459958.1481], var=[0.0, 5092152834972.848])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(85625.1988, 125919.41), mean=[112969.5982, 119376.2399], var=[495009.216, 53232937.2192])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(6295.9705, 6295.9705), mean=6295.9705, var=0)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(741242.6881, 758012.8058), mean=[741242.6881, 758012.8058], var=[0, 129.4995])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(454743.6673, 471513.785), mean=[454743.6673, 471513.785], var=[0, 129.4995])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(3839606.5639, 4074388.2119), mean=[3839606.5639, 4074388.2119], var=[0, 484.5427])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(126068.7775, 126068.7775), mean=126068.7775, var=0)</t>
+    <t>Pbox: ~ (range=[(411510.2518, 806687.2481), mean=[649953.4147, 748808.9945], var=[0.0, 6746636564.6688])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-12513.109, 516867.5873), mean=[326268.0245, 458987.5134], var=[0.0, 11231647384.9434])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-2472502.6913, 4269057.7031), mean=[-20211.0241, 3796970.3469], var=[0.0, 6213532536398.575])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(85726.7687, 126068.7775), mean=[113103.6044, 119517.8457], var=[496184.2867, 53359303.4868])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(6303.4389, 6303.4389), mean=6303.4389, var=0)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(746392.892, 763163.0097), mean=[746392.892, 763163.0097], var=[0, 129.4995])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(459893.8712, 476663.9889), mean=[459893.8712, 476663.9889], var=[0, 129.4995])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(4137046.0814, 4388597.8472), mean=[4137046.0814, 4388597.8472], var=[0, 501.5494])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(1846221.4331, 1846221.4331), mean=1846221.4331, var=0)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(16099050.8962, 16099050.8962), mean=16099050.8962, var=0)</t>
+    <t>Pbox: ~ (range=[(416243.6608, 811837.4519), mean=[654969.6684, 753893.2995], var=[0.0, 6758884273.7734])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-7779.7, 522017.7911), mean=[331264.4764, 464072.0375], var=[0.0, 11248464916.1243])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-2642736.745, 4628621.1406), mean=[-94772.8517, 4141815.8346], var=[0.0, 7456733462051.794])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(1275268.8896, 1846221.4331), mean=[1468285.1142, 1790395.2764], var=[0.0, 47806090287.091])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(11120344.7173, 16099050.8962), mean=[12803446.1962, 15612246.8102], var=[0.0, 3635098615685.9434])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(92311.0717, 92311.0717), mean=92311.0717, var=0)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(2263965.8922, 2515517.658), mean=[2263965.8922, 2515517.658], var=[0, 501.5494])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(5546140.4321, 5797692.1979), mean=[5546140.4321, 5797692.1979], var=[0, 501.5494])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(10301358.6984, 10552910.4642), mean=[10301358.6984, 10552910.4642], var=[0, 501.5494])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(6003873.3864, 6255425.1522), mean=[6003873.3864, 6255425.1522], var=[0, 501.5494])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(3567058.0814, 3818609.8472), mean=[3567058.0814, 3818609.8472], var=[0, 501.5494])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(224.3416, 240.1623), mean=[224.3416, 240.1623], var=[0, 3.9775])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(34655988.3195, 36668402.4459), mean=[34655988.3195, 36668402.4459], var=[0, 1418.5958])</t>
+    <t>Pbox: ~ (range=[(1971919.2388, 2385719.1454), mean=[1976363.4086, 2380781.1789], var=[0.0, 42807590675.5421])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(5254093.7786, 5667893.6852), mean=[5258537.9485, 5662955.7187], var=[0.0, 42807590675.5419])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(5452451.032, 10844957.1176), mean=[7135552.5109, 10358153.0316], var=[0.0, 4450463216839.446])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(52023.36, 1930875.16), mean=[55115.4585, 648067.3343], var=[0.0, 204992135966.8131])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(4349508.672, 6228360.472), mean=[4352600.7705, 4945552.6463], var=[0.0, 204992135966.8125])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-775909.44, 6495448.4456), mean=[1772054.4533, 6008643.1396], var=[0.0, 7456733462051.794])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-3212724.745, 4058633.1406), mean=[-664760.8517, 3571827.8346], var=[0.0, 7456733462051.795])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-202.0566, 255.258), mean=[-41.8085, 224.6416], var=[0.0, 29494.9603])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-17540939.6965, 37258882.5329), mean=[-12499242.1967, 36738452.097], var=[0.0, 675772894452204.4])</t>
   </si>
 </sst>
 </file>
@@ -1053,8 +1071,8 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -1063,43 +1081,43 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1116,43 +1134,43 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1163,57 +1181,57 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>286499.0208</v>
-      </c>
-      <c r="D4">
-        <v>286499.0208</v>
-      </c>
-      <c r="E4">
-        <v>286499.0208</v>
-      </c>
-      <c r="F4">
-        <v>286499.0208</v>
-      </c>
-      <c r="G4">
-        <v>286499.0208</v>
-      </c>
-      <c r="H4">
-        <v>286499.0208</v>
-      </c>
-      <c r="I4">
-        <v>286499.0208</v>
-      </c>
-      <c r="J4">
-        <v>286499.0208</v>
-      </c>
-      <c r="K4">
-        <v>286499.0208</v>
-      </c>
-      <c r="L4">
-        <v>286499.0208</v>
-      </c>
-      <c r="M4">
-        <v>286499.0208</v>
-      </c>
-      <c r="N4">
-        <v>286499.0208</v>
-      </c>
-      <c r="O4">
-        <v>286499.0208</v>
-      </c>
-      <c r="P4">
-        <v>286499.0208</v>
-      </c>
-      <c r="Q4">
-        <v>286499.0208</v>
+        <v>292033.4208</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0</v>
+      <c r="B5" t="s">
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -1222,46 +1240,46 @@
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1387,46 +1405,46 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1440,46 +1458,46 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1493,49 +1511,49 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1606,66 +1624,66 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="J2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="N2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="O2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="P2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="R2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1718,10 +1736,10 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
+        <v>91</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -1774,10 +1792,10 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -1830,10 +1848,10 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -1842,51 +1860,51 @@
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R6" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1942,7 +1960,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1998,7 +2016,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2054,7 +2072,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2110,7 +2128,7 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2166,10 +2184,10 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
+        <v>99</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
@@ -2178,51 +2196,51 @@
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R12" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2278,7 +2296,7 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2334,63 +2352,63 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E15" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F15" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G15" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H15" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I15" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="J15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K15" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L15" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M15" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="N15" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="O15" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P15" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q15" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="R15" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2446,111 +2464,111 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" t="s">
-        <v>119</v>
+        <v>169</v>
       </c>
       <c r="M17" t="s">
-        <v>119</v>
+        <v>169</v>
       </c>
       <c r="N17" t="s">
-        <v>119</v>
+        <v>169</v>
       </c>
       <c r="O17" t="s">
-        <v>119</v>
+        <v>169</v>
       </c>
       <c r="P17" t="s">
-        <v>119</v>
+        <v>169</v>
       </c>
       <c r="Q17" t="s">
-        <v>119</v>
+        <v>169</v>
       </c>
       <c r="R17" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="R18" t="s">
         <v>10</v>
@@ -2558,7 +2576,7 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
@@ -2570,107 +2588,107 @@
         <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R19" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E20" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F20" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G20" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H20" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I20" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="J20" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K20" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L20" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="M20" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="N20" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="O20" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="P20" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q20" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="R20" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2726,7 +2744,7 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2782,63 +2800,63 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
+        <v>5534.400000000001</v>
+      </c>
+      <c r="D23" t="s">
+        <v>128</v>
+      </c>
+      <c r="E23" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" t="s">
+        <v>128</v>
+      </c>
+      <c r="H23" t="s">
+        <v>128</v>
+      </c>
+      <c r="I23" t="s">
+        <v>128</v>
+      </c>
+      <c r="J23" t="s">
+        <v>128</v>
+      </c>
+      <c r="K23" t="s">
+        <v>128</v>
+      </c>
+      <c r="L23" t="s">
+        <v>128</v>
+      </c>
+      <c r="M23" t="s">
+        <v>128</v>
+      </c>
+      <c r="N23" t="s">
+        <v>128</v>
+      </c>
+      <c r="O23" t="s">
+        <v>128</v>
+      </c>
+      <c r="P23" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>128</v>
+      </c>
+      <c r="R23" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -2894,7 +2912,7 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -2950,58 +2968,58 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>286499.0208</v>
-      </c>
-      <c r="D26">
-        <v>286499.0208</v>
-      </c>
-      <c r="E26">
-        <v>286499.0208</v>
-      </c>
-      <c r="F26">
-        <v>286499.0208</v>
-      </c>
-      <c r="G26">
-        <v>286499.0208</v>
-      </c>
-      <c r="H26">
-        <v>286499.0208</v>
-      </c>
-      <c r="I26">
-        <v>286499.0208</v>
-      </c>
-      <c r="J26">
-        <v>286499.0208</v>
-      </c>
-      <c r="K26">
-        <v>286499.0208</v>
-      </c>
-      <c r="L26">
-        <v>286499.0208</v>
-      </c>
-      <c r="M26">
-        <v>286499.0208</v>
-      </c>
-      <c r="N26">
-        <v>286499.0208</v>
-      </c>
-      <c r="O26">
-        <v>286499.0208</v>
-      </c>
-      <c r="P26">
-        <v>286499.0208</v>
-      </c>
-      <c r="Q26">
-        <v>286499.0208</v>
-      </c>
-      <c r="R26">
-        <v>4297485.312</v>
+        <v>292033.4208</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" t="s">
+        <v>18</v>
+      </c>
+      <c r="M26" t="s">
+        <v>18</v>
+      </c>
+      <c r="N26" t="s">
+        <v>18</v>
+      </c>
+      <c r="O26" t="s">
+        <v>18</v>
+      </c>
+      <c r="P26" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>18</v>
+      </c>
+      <c r="R26" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3012,52 +3030,52 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D27" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E27" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F27" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G27" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H27" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I27" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="J27" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K27" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L27" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="M27" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="N27" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="O27" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="P27" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q27" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="R27" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3118,7 +3136,7 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B29">
         <v>2160000</v>
@@ -3174,55 +3192,55 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="F30" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="G30" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="H30" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="I30" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="J30" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="K30" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="L30" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="M30" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="N30" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="O30" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="P30" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="Q30" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="R30" t="s">
         <v>10</v>
@@ -3286,7 +3304,7 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
@@ -3295,49 +3313,49 @@
         <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R32" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3351,105 +3369,105 @@
         <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N33" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O33" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R33" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B34">
         <v>569988</v>
       </c>
       <c r="C34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D34" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E34" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F34" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H34" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I34" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="J34" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K34" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L34" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M34" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="N34" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="O34" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="P34" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q34" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="R34" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/results_JPFA.xlsx
+++ b/results_JPFA.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="225">
   <si>
     <t>Cumulative Sum</t>
   </si>
@@ -50,145 +50,145 @@
     <t>Pbox: ~ (range=[(0.0, 0.0), mean=0.0, var=0)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(864950.5391, 1017588.8695), mean=[926254.1422, 964711.7386], var=[228756509.3042, 1793409359.4544])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(405129.1129, 421899.2306), mean=[405129.1129, 421899.2306], var=[0, 129.4995])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-11436.466, 157971.9822), mean=[49867.1372, 105094.8513], var=[170581100.3426, 2500765694.1318])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(1731213.8645, 1747983.9822), mean=[1731213.8645, 1747983.9822], var=[0, 129.4995])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-0.7193, 9.9353), mean=[3.1363, 6.6097], var=[0.6747, 9.8917])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(701481.5892, 1031590.5723), mean=[925499.6705, 977985.8687], var=[33223291.2317, 3572808988.6341])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(405209.3979, 421979.5156), mean=[405209.3979, 421979.5156], var=[0, 129.4995])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(289819.6608, 424023.3608), mean=295389.8544, var=[99266973.3866, 169246339.9553])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-306975.6409, 174107.16), mean=[18424.1156, 120474.0778], var=[1577749.0953, 8111691563.427])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(1888550.9068, 1922091.1422), mean=[1888550.9068, 1922091.1422], var=[0, 183.1399])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-19.3065, 10.9501), mean=[1.1587, 7.5769], var=[0.0062, 32.0856])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(709769.1087, 1043778.101), mean=[936433.8086, 989540.095], var=[34012948.8547, 3657728204.905])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(398144.8005, 414914.9182), mean=[398144.8005, 414914.9182], var=[0, 129.4995])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-291623.524, 193359.2861), mean=[36226.715, 139098.9618], var=[1683275.9453, 8248136175.1732])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(2065140.0751, 2115450.4283), mean=[2065140.0751, 2115450.4283], var=[0, 224.2997])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-18.341, 12.1609), mean=[2.2784, 8.7483], var=[0.0067, 32.6253])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(716917.8851, 1054291.0074), mean=[945865.5461, 999506.7176], var=[34701554.3947, 3731780352.4122])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(391427.3249, 408197.4426), mean=[391427.3249, 408197.4426], var=[0, 129.4995])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-277757.272, 210589.6681), mean=[52208.0639, 155787.7681], var=[1777960.2126, 8366627010.3555])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(2258959.6255, 2326040.0964), mean=[2258959.6255, 2326040.0964], var=[0, 258.999])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-17.4689, 13.2445), mean=[3.2835, 9.7979], var=[0.007, 33.094])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(723022.8136, 1063268.8435), mean=[953920.0829, 1008018.0369], var=[35295074.2976, 3795607058.478])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(385039.9351, 401810.0528), mean=[385039.9351, 401810.0528], var=[0, 129.4995])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-265264.9537, 225954.8939), mean=[66507.7857, 170690.4674], var=[1861556.683, 8468499082.8634])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(2468144.4016, 2551994.9902), mean=[2468144.4016, 2551994.9902], var=[0, 289.5697])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-16.6832, 14.2109), mean=[4.1828, 10.7352], var=[0.0074, 33.497])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(728178.7894, 1070851.1609), mean=[960722.6192, 1015206.3532], var=[35800257.2945, 3849934076.833])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(378966.4869, 395736.6046), mean=[378966.4869, 395736.6046], var=[0, 129.4995])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-254035.5297, 239610.6595), mean=[79265.0701, 183955.2266], var=[1934123.4426, 8554845042.9216])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(2690984.9435, 2791605.6498), mean=[2690984.9435, 2791605.6498], var=[0, 317.2077])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-15.977, 15.0697), mean=[4.9852, 11.5694], var=[0.0077, 33.8385])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(732480.708, 1077177.5117), mean=[966398.3551, 1021203.9668], var=[36224506.7235, 3895557557.1403])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(373191.6833, 389961.801), mean=[373191.6833, 389961.801], var=[0, 129.4995])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-243958.8075, 251711.8139), mean=[90617.0383, 195730.1425], var=[1994956.1042, 8627154645.3167])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(2925926.6397, 3043317.4637), mean=[2925926.6397, 3043317.4637], var=[0, 342.6234])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-15.3432, 15.8308), mean=[5.6991, 12.31], var=[0.0079, 34.1245])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(736023.4644, 1082387.4476), mean=[971072.4904, 1026143.178], var=[36575765.0102, 3933331622.1838])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(367701.0322, 384471.1499), mean=[367701.0322, 384471.1499], var=[0, 129.4995])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-234925.4, 262412.401), mean=[100701.0536, 206161.8348], var=[2045404.5725, 8686885603.1973])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(3171568.9229, 3305729.8647), mean=[3171568.9229, 3305729.8647], var=[0, 366.2799])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-14.7751, 16.5038), mean=[6.3334, 12.9661], var=[0.0081, 34.3608])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(738901.954, 1086620.5206), mean=[974870.2254, 1030156.2871], var=[36862410.3092, 3964157252.721])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(362480.806, 379250.9237), mean=[362480.806, 379250.9237], var=[0, 129.4995])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-226826.6842, 271865.7001), mean=[109653.8999, 215396.6187], var=[2087008.8567, 8735510388.3014])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(3426664.5053, 3577595.5648), mean=[3426664.5053, 3577595.5648], var=[0, 388.4985])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-14.2657, 17.0983), mean=[6.8964, 13.5469], var=[0.0083, 34.5531])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(741211.072, 1090016.2824), mean=[977916.7601, 1033375.5944], var=[37093165.3049, 3988972480.0002])</t>
+    <t>Pbox: ~ (range=[(864950.5391, 1017588.8695), mean=228756509.3042, var=[228756509.3042, 1793409359.4544])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(405129.1129, 421899.2306), mean=[0, 129.4995], var=[0, 129.4995])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-11436.466, 157971.9822), mean=[170581100.3426, 2500765694.1318], var=[170581100.3426, 2500765694.1318])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(1731213.8645, 1747983.9822), mean=[0, 129.4995], var=[0, 129.4995])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-0.7193, 9.9353), mean=[0.6747, 3.1363], var=[0.6747, 9.8917])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(701481.5892, 1031590.5723), mean=33223291.2317, var=[33223291.2317, 3572808988.6341])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(405209.3979, 421979.5156), mean=[0, 129.4995], var=[0, 129.4995])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(289819.6608, 424023.3608), mean=[37201994.7453, 37308685.7661], var=[37201994.7453, 268194613.662])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-306975.6409, 174107.16), mean=[1577749.0953, 8111691563.427], var=[1577749.0953, 8111691563.427])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(1888550.9068, 1922091.1422), mean=[0, 183.1399], var=[0, 183.1399])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-19.3065, 10.9501), mean=[0.3209, 1.1587], var=[0.0062, 32.0856])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(709769.1087, 1043778.101), mean=34012948.8547, var=[34012948.8547, 3657728204.905])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(398144.8005, 414914.9182), mean=[0, 129.4995], var=[0, 129.4995])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-291623.524, 193359.2861), mean=[1683275.9453, 8248136175.1732], var=[1683275.9453, 8248136175.1732])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(2065140.0751, 2115450.4283), mean=[0, 224.2997], var=[0, 224.2997])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-18.341, 12.1609), mean=[0.3263, 2.2784], var=[0.0067, 32.6253])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(716917.8851, 1054291.0074), mean=34701554.3947, var=[34701554.3947, 3731780352.4122])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(391427.3249, 408197.4426), mean=[0, 129.4995], var=[0, 129.4995])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-277757.272, 210589.6681), mean=[1777960.2126, 8366627010.3555], var=[1777960.2126, 8366627010.3555])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(2258959.6255, 2326040.0964), mean=[0, 258.999], var=[0, 258.999])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-17.4689, 13.2445), mean=[0.3309, 3.2835], var=[0.007, 33.094])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(723022.8136, 1063268.8435), mean=35295074.2976, var=[35295074.2976, 3795607058.478])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(385039.9351, 401810.0528), mean=[0, 129.4995], var=[0, 129.4995])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-265264.9537, 225954.8939), mean=[1861556.683, 8468499082.8634], var=[1861556.683, 8468499082.8634])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(2468144.4016, 2551994.9902), mean=[0, 289.5697], var=[0, 289.5697])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-16.6832, 14.2109), mean=[0.335, 4.1828], var=[0.0074, 33.497])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(728178.7894, 1070851.1609), mean=35800257.2945, var=[35800257.2945, 3849934076.833])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(378966.4869, 395736.6046), mean=[0, 129.4995], var=[0, 129.4995])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-254035.5297, 239610.6595), mean=[1934123.4426, 8554845042.9216], var=[1934123.4426, 8554845042.9216])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(2690984.9435, 2791605.6498), mean=[0, 317.2077], var=[0, 317.2077])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-15.977, 15.0697), mean=[0.3384, 4.9852], var=[0.0077, 33.8385])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(732480.708, 1077177.5117), mean=36224506.7235, var=[36224506.7235, 3895557557.1403])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(373191.6833, 389961.801), mean=[0, 129.4995], var=[0, 129.4995])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-243958.8075, 251711.8139), mean=[1994956.1042, 8627154645.3167], var=[1994956.1042, 8627154645.3167])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(2925926.6397, 3043317.4637), mean=[0, 342.6234], var=[0, 342.6234])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-15.3432, 15.8308), mean=[0.3412, 5.6991], var=[0.0079, 34.1245])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(736023.4644, 1082387.4476), mean=36575765.0102, var=[36575765.0102, 3933331622.1838])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(367701.0322, 384471.1499), mean=[0, 129.4995], var=[0, 129.4995])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-234925.4, 262412.401), mean=[2045404.5725, 8686885603.1973], var=[2045404.5725, 8686885603.1973])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(3171568.9229, 3305729.8647), mean=[0, 366.2799], var=[0, 366.2799])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-14.7751, 16.5038), mean=[0.3436, 6.3334], var=[0.0081, 34.3608])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(738901.954, 1086620.5206), mean=36862410.3092, var=[36862410.3092, 3964157252.721])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(362480.806, 379250.9237), mean=[0, 129.4995], var=[0, 129.4995])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-226826.6842, 271865.7001), mean=[2087008.8567, 8735510388.3014], var=[2087008.8567, 8735510388.3014])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(3426664.5053, 3577595.5648), mean=[0, 388.4985], var=[0, 388.4985])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-14.2657, 17.0983), mean=[0.3455, 6.8964], var=[0.0083, 34.5531])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(741211.072, 1090016.2824), mean=37093165.3049, var=[37093165.3049, 3988972480.0002])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(308843.5614, 352655.0359), mean=[313287.7312, 347717.0694], var=[0.0, 479861324.9042])</t>
@@ -197,13 +197,13 @@
     <t>Pbox: ~ (range=[(-197921.6784, 328898.7065), mean=[139244.0906, 271421.2372], var=[0.0, 11128606893.8515])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(3690118.6519, 3857819.8291), mean=[3690118.6519, 3857819.8291], var=[0, 409.5133])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-12.4478, 20.6853), mean=[8.7574, 17.0704], var=[0.0, 0.0044])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(743045.7137, 1092714.2849), mean=[980337.2945, 1035933.4002], var=[37277018.1724, 4008743885.9418])</t>
+    <t>Pbox: ~ (range=[(3690118.6519, 3857819.8291), mean=[0, 409.5133], var=[0, 409.5133])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-12.4478, 20.6853), mean=[0.4402, 8.7574], var=[0.0, 0.0044])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(743045.7137, 1092714.2849), mean=37277018.1724, var=[37277018.1724, 4008743885.9418])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(304125.8718, 347937.3463), mean=[308570.0416, 342999.3798], var=[0.0, 479861324.9042])</t>
@@ -212,13 +212,13 @@
     <t>Pbox: ~ (range=[(-191369.347, 336314.3987), mean=[146340.8586, 278701.3479], var=[0.0, 11163305865.1047])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(3960988.4906, 4145459.7855), mean=[3960988.4906, 4145459.7855], var=[0, 429.5012])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-12.0357, 21.1517), mean=[9.2038, 17.5283], var=[0.0, 0.0044])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(744500.7744, 1094854.08), mean=[982257.0286, 1037962.0048], var=[37423155.6981, 4024459410.9847])</t>
+    <t>Pbox: ~ (range=[(3960988.4906, 4145459.7855), mean=[0, 429.5012], var=[0, 429.5012])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-12.0357, 21.1517), mean=[0.4416, 9.2038], var=[0.0, 0.0044])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(744500.7744, 1094854.08), mean=37423155.6981, var=[37423155.6981, 4024459410.9847])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(299641.6394, 343453.114), mean=[304085.8093, 338515.1475], var=[0.0, 479861324.9042])</t>
@@ -227,13 +227,13 @@
     <t>Pbox: ~ (range=[(-185430.054, 342938.4261), mean=[152712.2608, 285217.7033], var=[0.0, 11190859248.0127])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(4238482.3567, 4439723.7694), mean=[4238482.3567, 4439723.7694], var=[0, 448.5994])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-11.6622, 21.5683), mean=[9.6045, 17.9381], var=[0.0, 0.0044])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(745671.1493, 1096575.2196), mean=[983801.1626, 1039593.7085], var=[37540908.5602, 4037122469.596])</t>
+    <t>Pbox: ~ (range=[(4238482.3567, 4439723.7694), mean=[0, 448.5994], var=[0, 448.5994])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-11.6622, 21.5683), mean=[0.4427, 9.6045], var=[0.0, 0.0044])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(745671.1493, 1096575.2196), mean=37540908.5602, var=[37540908.5602, 4037122469.596])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(295379.8316, 339191.3062), mean=[299824.0015, 334253.3397], var=[0.0, 479861324.9042])</t>
@@ -242,13 +242,13 @@
     <t>Pbox: ~ (range=[(-179997.8713, 348921.3735), mean=[158492.036, 291113.9522], var=[0.0, 11213043227.9577])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(4521959.1702, 4739970.7006), mean=[4521959.1702, 4739970.7006], var=[0, 466.917])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-11.3205, 21.9446), mean=[9.968, 18.3089], var=[0.0, 0.0044])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(746651.7337, 1098017.2554), mean=[985094.8965, 1040960.8116], var=[37639708.7692, 4047747373.4461])</t>
+    <t>Pbox: ~ (range=[(4521959.1702, 4739970.7006), mean=[0, 466.917], var=[0, 466.917])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-11.3205, 21.9446), mean=[0.4435, 9.968], var=[0.0, 0.0044])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(746651.7337, 1098017.2554), mean=37639708.7692, var=[37639708.7692, 4047747373.4461])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(291330.0073, 335141.4818), mean=[295774.1772, 330203.5153], var=[0.0, 479861324.9042])</t>
@@ -257,13 +257,13 @@
     <t>Pbox: ~ (range=[(-174967.4626, 354413.2336), mean=[163813.6708, 296533.1597], var=[0.0, 11231647384.9434])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(4810927.8439, 5045709.4919), mean=[4810927.8439, 5045709.4919], var=[0, 484.5427])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-11.0042, 22.29), mean=[10.3027, 18.6497], var=[0.0, 0.0044])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(747537.4228, 1099319.7394), mean=[986263.4304, 1042195.6144], var=[37729059.2683, 4057356062.2478])</t>
+    <t>Pbox: ~ (range=[(4810927.8439, 5045709.4919), mean=[0, 484.5427], var=[0, 484.5427])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-11.0042, 22.29), mean=[0.4443, 10.3027], var=[0.0, 0.0044])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(747537.4228, 1099319.7394), mean=37729059.2683, var=[37729059.2683, 4057356062.2478])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(287482.2875, 331293.762), mean=[291926.4573, 326355.7955], var=[0.0, 479861324.9042])</t>
@@ -272,16 +272,16 @@
     <t>Pbox: ~ (range=[(-170234.0537, 359563.4375), mean=[168810.1228, 301617.6838], var=[0.0, 11248464916.1243])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(5105046.7214, 5356598.4872), mean=[5105046.7214, 5356598.4872], var=[0, 501.5494])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-10.7065, 22.6139), mean=[10.6169, 18.9695], var=[0.0, 0.0044])</t>
+    <t>Pbox: ~ (range=[(5105046.7214, 5356598.4872), mean=[0, 501.5494], var=[0, 501.5494])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-10.7065, 22.6139), mean=[0.4449, 10.6169], var=[0.0, 0.0044])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(-1551818.8799, 12990896.8912), mean=[1871656.2622, 12471188.9851], var=[0.0, 37602197712611.06])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(-404.1133, 510.516), mean=[-188.802, 477.8303], var=[0.0, 148734.7421])</t>
+    <t>Pbox: ~ (range=[(-404.1133, 510.516), mean=[0.0, 477.8303], var=[0.0, 148734.7421])</t>
   </si>
   <si>
     <t>Yield Crop 1</t>
@@ -371,40 +371,46 @@
     <t>Financial Balance</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(99191.5756, 116695.9713), mean=[106221.8053, 110632.0801], var=[3008434.0189, 23585574.6498])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(5834.7986, 5834.7986), mean=5834.7986, var=0)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(150931.0595, 167701.1772), mean=[150931.0595, 167701.1772], var=[0, 0.0])</t>
+    <t>Pbox: ~ (range=[(99191.5756, 116695.9713), mean=[3008434.0189, 23585574.6498], var=[3008434.0189, 23585574.6498])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(864950.5391, 1017588.8695), mean=[228756509.3042, 1793409359.4544], var=[228756509.3042, 1793409359.4544])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(5834.7986, 5834.7986), mean=0.0, var=0)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(150931.0595, 167701.1772), mean=[0, 129.4995], var=[0, 0.0])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(0.0, 0.0), mean=0.0, var=0.0)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(443051.3085, 612459.7567), mean=[504354.9117, 559582.6258], var=[170581100.3426, 2500765694.1318])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(151017.8877, 320426.3359), mean=[212321.4909, 267549.205], var=[170581100.3426, 2500765694.1318])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(558551.534, 727959.9822), mean=[619855.1372, 675082.8513], var=[170581100.3426, 2500765694.1318])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(80445.1364, 118301.6711), mean=[106135.2833, 112154.3427], var=[436927.8053, 46986903.8359])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(5915.0836, 5915.0836), mean=5915.0836, var=0)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(279502.0736, 626381.1745), mean=[503520.155, 572776.4709], var=[6222402.6901, 4451572949.3361])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(3320.64, 137524.34), mean=8890.8336, var=[99266973.3866, 169246339.9553])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-144521.2872, 336561.5137), mean=[180878.4692, 282928.4315], var=[1577749.0953, 8111691563.427])</t>
+    <t>Pbox: ~ (range=[(443051.3085, 612459.7567), mean=[170581100.3426, 2500765694.1318], var=[170581100.3426, 2500765694.1318])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(151017.8877, 320426.3359), mean=[170581100.3426, 2500765694.1318], var=[170581100.3426, 2500765694.1318])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(558551.534, 727959.9822), mean=170581100.3426, var=[170581100.3426, 2500765694.1318])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(80445.1364, 118301.6711), mean=[436927.8053, 46986903.8359], var=[436927.8053, 46986903.8359])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(701481.5892, 1031590.5723), mean=[33223291.2317, 3572808988.6341], var=[33223291.2317, 3572808988.6341])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(5915.0836, 5915.0836), mean=0.0, var=0)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(279502.0736, 626381.1745), mean=[6222402.6901, 4451572949.3361], var=[6222402.6901, 4451572949.3361])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(3320.64, 137524.34), mean=[37201994.7453, 37205315.3853], var=[37201994.7453, 268194613.662])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-144521.2872, 336561.5137), mean=[1577749.0953, 8111691563.427], var=[1577749.0953, 8111691563.427])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(-0.0, -0.0), mean=0.0, var=0.0)</t>
@@ -413,115 +419,139 @@
     <t>Pbox: ~ (range=[(251575.8932, 902067.1422), mean=[579860.7237, 804764.5407], var=[0.0, 22480401369.4065])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(81395.54, 119699.3235), mean=[107389.1982, 113479.3687], var=[447312.79, 48103697.6699])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(5984.9662, 5984.9662), mean=5984.9662, var=0)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(294854.1905, 645633.3005), mean=[521518.8905, 591395.2945], var=[6542848.7232, 4546088571.4308])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-129169.1703, 355813.6397), mean=[198681.0687, 301553.3155], var=[1683275.9453, 8248136175.1732])</t>
+    <t>Pbox: ~ (range=[(81395.54, 119699.3235), mean=[447312.79, 48103697.6699], var=[447312.79, 48103697.6699])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(709769.1087, 1043778.101), mean=[34012948.8547, 3657728204.905], var=[34012948.8547, 3657728204.905])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(5984.9662, 5984.9662), mean=0.0, var=0)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(294854.1905, 645633.3005), mean=[6542848.7232, 4546088571.4308], var=[6542848.7232, 4546088571.4308])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-129169.1703, 355813.6397), mean=[1683275.9453, 8248136175.1732], var=[1683275.9453, 8248136175.1732])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(-40047.6308, 1095426.4283), mean=[531259.4819, 954626.5045], var=[0.0, 75080457396.7788])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(82215.3538, 120904.932), mean=[108470.8195, 114622.33], var=[456368.8136, 49077575.967])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(6045.2466, 6045.2466), mean=6045.2466, var=0)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(308720.4424, 662863.6825), mean=[537668.1035, 608079.3927], var=[6826779.1457, 4628417882.6736])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-115302.9184, 373044.0217), mean=[214662.4175, 318242.1218], var=[1777960.2126, 8366627010.3555])</t>
+    <t>Pbox: ~ (range=[(82215.3538, 120904.932), mean=[456368.8136, 49077575.967], var=[456368.8136, 49077575.967])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(716917.8851, 1054291.0074), mean=[34701554.3947, 3731780352.4122], var=[34701554.3947, 3731780352.4122])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(6045.2466, 6045.2466), mean=0.0, var=0)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(308720.4424, 662863.6825), mean=[6826779.1457, 4628417882.6736], var=[6826779.1457, 4628417882.6736])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-115302.9184, 373044.0217), mean=[1777960.2126, 8366627010.3555], var=[1777960.2126, 8366627010.3555])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(-317804.9028, 1306016.0964), mean=[484484.9097, 1123390.607], var=[0.0, 174010570929.8746])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(82915.4603, 121934.5004), mean=[109394.5049, 115598.3987], var=[464174.3421, 49916976.9285])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(6096.725, 6096.725), mean=6096.725, var=0)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(321212.7607, 678228.9083), mean=[552110.0301, 622978.1018], var=[7074817.1015, 4699312662.0202])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-102810.6001, 388409.2475), mean=[228962.1394, 333144.821], var=[1861556.683, 8468499082.8634])</t>
+    <t>Pbox: ~ (range=[(82915.4603, 121934.5004), mean=[464174.3421, 49916976.9285], var=[464174.3421, 49916976.9285])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(723022.8136, 1063268.8435), mean=[35295074.2976, 3795607058.478], var=[35295074.2976, 3795607058.478])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(6096.725, 6096.725), mean=0.0, var=0)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(321212.7607, 678228.9083), mean=[7074817.1015, 4699312662.0202], var=[7074817.1015, 4699312662.0202])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-102810.6001, 388409.2475), mean=[1861556.683, 8468499082.8634], var=[1861556.683, 8468499082.8634])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(-583069.8565, 1531970.9902), mean=[438940.549, 1309620.9839], var=[0.0, 332999460759.1904])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(83506.7419, 122804.0322), mean=[110174.6123, 116422.7469], var=[470818.13, 50631445.1229])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(6140.2016, 6140.2016), mean=6140.2016, var=0)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(332442.1848, 691884.674), mean=[564986.0146, 636239.8663], var=[7288294.2349, 4759608746.3791])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-91581.176, 402065.0132), mean=[241719.4237, 346409.5803], var=[1934123.4426, 8554845042.9216])</t>
+    <t>Pbox: ~ (range=[(83506.7419, 122804.0322), mean=[470818.13, 50631445.1229], var=[470818.13, 50631445.1229])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(728178.7894, 1070851.1609), mean=[35800257.2945, 3849934076.833], var=[35800257.2945, 3849934076.833])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(6140.2016, 6140.2016), mean=0.0, var=0)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(332442.1848, 691884.674), mean=[7288294.2349, 4759608746.3791], var=[7288294.2349, 4759608746.3791])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-91581.176, 402065.0132), mean=[1934123.4426, 8554845042.9216], var=[1934123.4426, 8554845042.9216])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(-837105.3862, 1771581.6498), mean=[393035.7337, 1511701.1724], var=[0.0, 565965977524.2638])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(84000.0812, 123529.5312), mean=[110825.4994, 117110.5467], var=[476397.5402, 51231450.9135])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(6176.4766, 6176.4766), mean=6176.4766, var=0)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(342518.9069, 703985.8284), mean=[576436.554, 648012.2835], var=[7469209.1917, 4810212311.3076])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-81504.4539, 414166.1676), mean=[253071.3919, 358184.4962], var=[1994956.1042, 8627154645.3167])</t>
+    <t>Pbox: ~ (range=[(84000.0812, 123529.5312), mean=[476397.5402, 51231450.9135], var=[476397.5402, 51231450.9135])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(732480.708, 1077177.5117), mean=[36224506.7235, 3895557557.1403], var=[36224506.7235, 3895557557.1403])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(6176.4766, 6176.4766), mean=0.0, var=0)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(342518.9069, 703985.8284), mean=[7469209.1917, 4810212311.3076], var=[7469209.1917, 4810212311.3076])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-81504.4539, 414166.1676), mean=[1994956.1042, 8627154645.3167], var=[1994956.1042, 8627154645.3167])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(-1081064.1938, 2023293.4637), mean=[345320.8911, 1728155.3546], var=[0.0, 885280039974.9008])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(84406.3606, 124127.0009), mean=[111361.5241, 117676.97], var=[481017.0257, 51728227.0824])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(6206.35, 6206.35), mean=6206.35, var=0)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(351552.3145, 714686.4154), mean=[586601.3405, 658442.1458], var=[7620109.9133, 4852087458.31])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-72471.0463, 424866.7546), mean=[263155.4073, 368616.1885], var=[2045404.5725, 8686885603.1973])</t>
+    <t>Pbox: ~ (range=[(84406.3606, 124127.0009), mean=[481017.0257, 51728227.0824], var=[481017.0257, 51728227.0824])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(736023.4644, 1082387.4476), mean=[36575765.0102, 3933331622.1838], var=[36575765.0102, 3933331622.1838])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(6206.35, 6206.35), mean=0.0, var=0)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(351552.3145, 714686.4154), mean=[7620109.9133, 4852087458.31], var=[7620109.9133, 4852087458.31])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-72471.0463, 424866.7546), mean=[2045404.5725, 8686885603.1973], var=[2045404.5725, 8686885603.1973])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(-1315989.5937, 2285705.8647), mean=[294537.5359, 1957644.6612], var=[0.0, 1294344763514.435])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(84736.4626, 124612.445), mean=[111797.0442, 118137.1889], var=[484786.7697, 52133622.6528])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(6230.6223, 6230.6223), mean=6230.6223, var=0)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(359651.0303, 724139.7146), mean=[595619.3017, 667675.4811], var=[7743988.3203, 4886245108.7345])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-64372.3305, 434320.0538), mean=[272108.2536, 377850.9724], var=[2087008.8567, 8735510388.3014])</t>
+    <t>Pbox: ~ (range=[(84736.4626, 124612.445), mean=[484786.7697, 52133622.6528], var=[484786.7697, 52133622.6528])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(738901.954, 1086620.5206), mean=[36862410.3092, 3964157252.721], var=[36862410.3092, 3964157252.721])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(6230.6223, 6230.6223), mean=0.0, var=0)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(359651.0303, 724139.7146), mean=[7743988.3203, 4886245108.7345], var=[7743988.3203, 4886245108.7345])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-64372.3305, 434320.0538), mean=[2087008.8567, 8735510388.3014], var=[2087008.8567, 8735510388.3014])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(-1542816.2779, 2557571.5648), mean=[239651.6256, 2199005.098], var=[0.0, 1798490778498.2278])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(85001.2697, 125001.8672), mean=[112146.4174, 118506.3755], var=[487821.4863, 52459973.9079])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(6250.0934, 6250.0934), mean=6250.0934, var=0)</t>
+    <t>Pbox: ~ (range=[(85001.2697, 125001.8672), mean=[487821.4863, 52459973.9079], var=[487821.4863, 52459973.9079])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(741211.072, 1090016.2824), mean=[37093165.3049, 3988972480.0002], var=[37093165.3049, 3988972480.0002])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(6250.0934, 6250.0934), mean=0.0, var=0)</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(102256.6172, 146068.0918), mean=[106700.7871, 141130.1253], var=[0.0, 479861324.9042])</t>
@@ -536,10 +566,13 @@
     <t>Pbox: ~ (range=[(-1740737.9563, 2886470.2713), mean=[201068.6351, 2499947.0662], var=[0.0, 2444173441781.3945])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(85211.6644, 125311.2712), mean=[112424.0017, 118799.7019], var=[490239.3813, 52719992.6082])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(6265.5636, 6265.5636), mean=6265.5636, var=0)</t>
+    <t>Pbox: ~ (range=[(85211.6644, 125311.2712), mean=[490239.3813, 52719992.6082], var=[490239.3813, 52719992.6082])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(743045.7137, 1092714.2849), mean=[37277018.1724, 4008743885.9418], var=[37277018.1724, 4008743885.9418])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(6265.5636, 6265.5636), mean=0.0, var=0)</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(395108.3674, 788588.4131), mean=[632399.9482, 730978.1898], var=[0.0, 6696887748.2497])</t>
@@ -551,10 +584,13 @@
     <t>Pbox: ~ (range=[(-1932107.3033, 3222784.67), mean=[156418.886, 2810901.7421], var=[0.0, 3208410397849.561])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(85378.5292, 125556.6606), mean=[112644.1547, 119032.34], var=[492161.2724, 52926671.4053])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(6277.833, 6277.833), mean=6277.833, var=0)</t>
+    <t>Pbox: ~ (range=[(85378.5292, 125556.6606), mean=[492161.2724, 52926671.4053], var=[492161.2724, 52926671.4053])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(744500.7744, 1094854.08), mean=[37423155.6981, 4024459410.9847], var=[37423155.6981, 4024459410.9847])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(6277.833, 6277.833), mean=0.0, var=0)</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(401047.6604, 795212.4406), mean=[638803.9147, 737494.0701], var=[0.0, 6716939251.965])</t>
@@ -566,10 +602,13 @@
     <t>Pbox: ~ (range=[(-2117537.3574, 3565723.0961), mean=[105139.1751, 3131110.7209], var=[0.0, 4091152929027.888])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(85512.7465, 125754.0389), mean=[112821.2342, 119219.462], var=[493709.8698, 53093206.4535])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(6287.7019, 6287.7019), mean=6287.7019, var=0)</t>
+    <t>Pbox: ~ (range=[(85512.7465, 125754.0389), mean=[493709.8698, 53093206.4535], var=[493709.8698, 53093206.4535])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(745671.1493, 1096575.2196), mean=[37540908.5602, 4037122469.596], var=[37540908.5602, 4037122469.596])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(6287.7019, 6287.7019), mean=0.0, var=0)</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(406479.8431, 801195.3879), mean=[644609.8565, 743390.0295], var=[0.0, 6733089804.025])</t>
@@ -581,10 +620,13 @@
     <t>Pbox: ~ (range=[(-2297535.2287, 3914644.4695), mean=[46385.0507, 3459958.1481], var=[0.0, 5092152834972.848])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(85625.1988, 125919.41), mean=[112969.5982, 119376.2399], var=[495009.216, 53232937.2192])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(6295.9705, 6295.9705), mean=6295.9705, var=0)</t>
+    <t>Pbox: ~ (range=[(85625.1988, 125919.41), mean=[495009.216, 53232937.2192], var=[495009.216, 53232937.2192])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(746651.7337, 1098017.2554), mean=[37639708.7692, 4047747373.4461], var=[37639708.7692, 4047747373.4461])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(6295.9705, 6295.9705), mean=0.0, var=0)</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(411510.2518, 806687.2481), mean=[649953.4147, 748808.9945], var=[0.0, 6746636564.6688])</t>
@@ -593,13 +635,16 @@
     <t>Pbox: ~ (range=[(-12513.109, 516867.5873), mean=[326268.0245, 458987.5134], var=[0.0, 11231647384.9434])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(-2472502.6913, 4269057.7031), mean=[-20211.0241, 3796970.3469], var=[0.0, 6213532536398.575])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(85726.7687, 126068.7775), mean=[113103.6044, 119517.8457], var=[496184.2867, 53359303.4868])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(6303.4389, 6303.4389), mean=6303.4389, var=0)</t>
+    <t>Pbox: ~ (range=[(-2472502.6913, 4269057.7031), mean=[0.0, 3796970.3469], var=[0.0, 6213532536398.575])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(85726.7687, 126068.7775), mean=[496184.2867, 53359303.4868], var=[496184.2867, 53359303.4868])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(747537.4228, 1099319.7394), mean=[37729059.2683, 4057356062.2478], var=[37729059.2683, 4057356062.2478])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(6303.4389, 6303.4389), mean=0.0, var=0)</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(416243.6608, 811837.4519), mean=[654969.6684, 753893.2995], var=[0.0, 6758884273.7734])</t>
@@ -608,7 +653,7 @@
     <t>Pbox: ~ (range=[(-7779.7, 522017.7911), mean=[331264.4764, 464072.0375], var=[0.0, 11248464916.1243])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(-2642736.745, 4628621.1406), mean=[-94772.8517, 4141815.8346], var=[0.0, 7456733462051.794])</t>
+    <t>Pbox: ~ (range=[(-2642736.745, 4628621.1406), mean=[0.0, 4141815.8346], var=[0.0, 7456733462051.794])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(1275268.8896, 1846221.4331), mean=[1468285.1142, 1790395.2764], var=[0.0, 47806090287.091])</t>
@@ -617,7 +662,7 @@
     <t>Pbox: ~ (range=[(11120344.7173, 16099050.8962), mean=[12803446.1962, 15612246.8102], var=[0.0, 3635098615685.9434])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(92311.0717, 92311.0717), mean=92311.0717, var=0)</t>
+    <t>Pbox: ~ (range=[(92311.0717, 92311.0717), mean=0, var=0)</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(1971919.2388, 2385719.1454), mean=[1976363.4086, 2380781.1789], var=[0.0, 42807590675.5421])</t>
@@ -638,13 +683,13 @@
     <t>Pbox: ~ (range=[(-775909.44, 6495448.4456), mean=[1772054.4533, 6008643.1396], var=[0.0, 7456733462051.794])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(-3212724.745, 4058633.1406), mean=[-664760.8517, 3571827.8346], var=[0.0, 7456733462051.795])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-202.0566, 255.258), mean=[-41.8085, 224.6416], var=[0.0, 29494.9603])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-17540939.6965, 37258882.5329), mean=[-12499242.1967, 36738452.097], var=[0.0, 675772894452204.4])</t>
+    <t>Pbox: ~ (range=[(-3212724.745, 4058633.1406), mean=[0.0, 3571827.8346], var=[0.0, 7456733462051.795])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-202.0566, 255.258), mean=[0.0, 224.6416], var=[0.0, 29494.9603])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-17540939.6965, 37258882.5329), mean=[0.0, 36738452.097], var=[0.0, 675772894452204.4])</t>
   </si>
 </sst>
 </file>
@@ -1633,49 +1678,49 @@
         <v>118</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="J2" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="K2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="L2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M2" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="N2" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="O2" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="P2" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="Q2" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="R2" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1854,52 +1899,52 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>153</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>159</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
       <c r="K6" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
       <c r="L6" t="s">
-        <v>57</v>
+        <v>177</v>
       </c>
       <c r="M6" t="s">
-        <v>62</v>
+        <v>184</v>
       </c>
       <c r="N6" t="s">
-        <v>67</v>
+        <v>190</v>
       </c>
       <c r="O6" t="s">
-        <v>72</v>
+        <v>196</v>
       </c>
       <c r="P6" t="s">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="Q6" t="s">
-        <v>82</v>
+        <v>208</v>
       </c>
       <c r="R6" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2235,7 +2280,7 @@
         <v>82</v>
       </c>
       <c r="R12" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2358,52 +2403,52 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E15" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F15" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G15" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H15" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="I15" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="J15" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="K15" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="L15" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="M15" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="N15" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="O15" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="P15" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="Q15" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="R15" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2470,52 +2515,52 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L17" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="M17" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="N17" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="O17" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="P17" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="Q17" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="R17" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2526,49 +2571,49 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="R18" t="s">
         <v>10</v>
@@ -2627,7 +2672,7 @@
         <v>83</v>
       </c>
       <c r="R19" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2638,52 +2683,52 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D20" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E20" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F20" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G20" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="H20" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="I20" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="J20" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="K20" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="L20" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="M20" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="N20" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="O20" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="P20" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="Q20" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="R20" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2809,49 +2854,49 @@
         <v>5534.400000000001</v>
       </c>
       <c r="D23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="R23" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -3019,7 +3064,7 @@
         <v>18</v>
       </c>
       <c r="R26" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3030,52 +3075,52 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D27" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E27" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F27" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G27" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="H27" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I27" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="J27" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="K27" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="L27" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="M27" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="N27" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="O27" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="P27" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="Q27" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="R27" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3198,49 +3243,49 @@
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D30" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E30" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F30" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G30" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H30" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I30" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J30" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K30" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L30" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M30" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="N30" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O30" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P30" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q30" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="R30" t="s">
         <v>10</v>
@@ -3355,7 +3400,7 @@
         <v>84</v>
       </c>
       <c r="R32" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3411,7 +3456,7 @@
         <v>86</v>
       </c>
       <c r="R33" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3422,52 +3467,52 @@
         <v>569988</v>
       </c>
       <c r="C34" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D34" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E34" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F34" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G34" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H34" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="I34" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="J34" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="K34" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="L34" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="M34" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="N34" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="O34" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="P34" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="Q34" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="R34" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
